--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Documents/GitHub/未命名/sui-song-list/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE64844-68A4-D946-83CB-230016A865A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410D9F3-4F8D-DE47-B753-63B9D55BC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="2230">
   <si>
     <t>序号</t>
   </si>
@@ -7067,6 +7067,30 @@
   </si>
   <si>
     <t>2022/12/12，2024/1/28</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坂本真綾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/2/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑马</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハゼ馳せる果てるまで</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずっと真夜中でいいのに。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7589,8 +7613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" topLeftCell="A823" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C851" sqref="C851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27614,37 +27638,70 @@
       <c r="A847" s="15">
         <v>846</v>
       </c>
-      <c r="B847" s="4"/>
+      <c r="B847" s="4" t="s">
+        <v>2224</v>
+      </c>
       <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="5"/>
+      <c r="D847" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>2226</v>
+      </c>
       <c r="F847" s="5"/>
-      <c r="G847" s="5"/>
-      <c r="H847" s="6"/>
+      <c r="G847" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H847" s="6">
+        <f t="shared" ref="H847:H849" si="13">LEN(E847)-LEN(SUBSTITUTE(E847,"，",""))+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="848" spans="1:8" ht="16" customHeight="1">
       <c r="A848" s="15">
         <v>847</v>
       </c>
-      <c r="B848" s="4"/>
+      <c r="B848" s="4" t="s">
+        <v>2227</v>
+      </c>
       <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="5"/>
+      <c r="D848" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>2226</v>
+      </c>
       <c r="F848" s="5"/>
-      <c r="G848" s="5"/>
-      <c r="H848" s="6"/>
+      <c r="G848" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H848" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="849" spans="1:8" ht="16" customHeight="1">
       <c r="A849" s="15">
         <v>848</v>
       </c>
-      <c r="B849" s="4"/>
+      <c r="B849" s="4" t="s">
+        <v>2228</v>
+      </c>
       <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="5"/>
+      <c r="D849" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>2226</v>
+      </c>
       <c r="F849" s="5"/>
-      <c r="G849" s="5"/>
-      <c r="H849" s="6"/>
+      <c r="G849" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H849" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="850" spans="1:8" ht="16" customHeight="1">
       <c r="A850" s="15">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Documents/GitHub/未命名/sui-song-list/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410D9F3-4F8D-DE47-B753-63B9D55BC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0A689-F603-154C-9DDA-24FB6F5E88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7613,8 +7613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C851" sqref="C851"/>
+    <sheetView tabSelected="1" topLeftCell="A821" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C845" sqref="C845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Documents/GitHub/未命名/sui-song-list/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0A689-F603-154C-9DDA-24FB6F5E88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8099245A-4948-8449-BE49-33B699236451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="2238">
   <si>
     <t>序号</t>
   </si>
@@ -3129,15 +3129,9 @@
     <t>2023/3/8，2023/9/9</t>
   </si>
   <si>
-    <t>修羅場</t>
-  </si>
-  <si>
     <t>修罗场</t>
   </si>
   <si>
-    <t>2023/3/8，2023/5/23，2022/9/4</t>
-  </si>
-  <si>
     <t>我好想你</t>
   </si>
   <si>
@@ -5070,9 +5064,6 @@
     <t>2022/11/18</t>
   </si>
   <si>
-    <t>倒带</t>
-  </si>
-  <si>
     <t>蔡依林</t>
   </si>
   <si>
@@ -5184,9 +5175,6 @@
     <t>初音ミク/青木月光</t>
   </si>
   <si>
-    <t>またあした</t>
-  </si>
-  <si>
     <t>明天见</t>
   </si>
   <si>
@@ -5878,9 +5866,6 @@
   </si>
   <si>
     <t>GUMI/40mP</t>
-  </si>
-  <si>
-    <t>2023/10/19</t>
   </si>
   <si>
     <t>夕立のりぼん</t>
@@ -6874,10 +6859,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2023/7/8，2023/7/11，2024/1/6，2024/1/21</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>2023/5/19，2023/8/3，2023/8/27，2024/1/21</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7070,6 +7051,26 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>倒带</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/8/17，2024/2/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/10/19，2024/2/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修羅場</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/3/8，2023/5/23，2022/9/4，2024/2/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>clear</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7091,6 +7092,42 @@
   </si>
   <si>
     <t>ずっと真夜中でいいのに。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/7/8，2023/7/11，2024/1/6，2024/1/21，2024/2/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/7/25，2024/2/4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海に行く</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶太</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/2/5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>またあした</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/7/25，2024/2/5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>林二汶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最幸运的人</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7613,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A821" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C845" sqref="C845"/>
+    <sheetView tabSelected="1" topLeftCell="A833" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C838" sqref="C838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7665,7 +7702,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -7765,7 +7802,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -7790,7 +7827,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
@@ -7813,7 +7850,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
@@ -7882,7 +7919,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
@@ -8000,7 +8037,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>56</v>
@@ -8172,7 +8209,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
@@ -8197,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>81</v>
@@ -8215,7 +8252,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>82</v>
@@ -8224,7 +8261,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
@@ -8270,7 +8307,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
@@ -8387,7 +8424,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>103</v>
@@ -8412,7 +8449,7 @@
         <v>105</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
@@ -8435,7 +8472,7 @@
         <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -8474,7 +8511,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>110</v>
@@ -8501,7 +8538,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>114</v>
@@ -8510,7 +8547,7 @@
         <v>115</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
@@ -8533,7 +8570,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
@@ -8549,12 +8586,12 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
@@ -8882,7 +8919,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>151</v>
@@ -9105,7 +9142,7 @@
         <v>182</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
@@ -9272,7 +9309,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
@@ -9318,7 +9355,7 @@
         <v>202</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
@@ -9357,7 +9394,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>206</v>
@@ -9366,7 +9403,7 @@
         <v>207</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
@@ -9437,7 +9474,7 @@
         <v>216</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
@@ -9551,7 +9588,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>228</v>
@@ -9600,7 +9637,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
@@ -9623,7 +9660,7 @@
         <v>233</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
@@ -9669,7 +9706,7 @@
         <v>238</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
@@ -9738,7 +9775,7 @@
         <v>244</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
@@ -9834,7 +9871,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
@@ -9880,7 +9917,7 @@
         <v>258</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
@@ -10110,7 +10147,7 @@
         <v>281</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>282</v>
@@ -10214,7 +10251,7 @@
         <v>296</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
@@ -10377,7 +10414,7 @@
         <v>315</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
@@ -10400,7 +10437,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>317</v>
@@ -10475,7 +10512,7 @@
         <v>326</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5" t="s">
@@ -10646,7 +10683,7 @@
         <v>350</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>351</v>
@@ -10671,7 +10708,7 @@
         <v>353</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>355</v>
@@ -10932,7 +10969,7 @@
         <v>382</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
@@ -10978,7 +11015,7 @@
         <v>387</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>388</v>
@@ -11074,7 +11111,7 @@
         <v>292</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>398</v>
@@ -11099,7 +11136,7 @@
         <v>400</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5" t="s">
@@ -11147,7 +11184,7 @@
         <v>74</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>406</v>
@@ -11564,7 +11601,7 @@
         <v>390</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5" t="s">
@@ -11610,7 +11647,7 @@
         <v>77</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5" t="s">
@@ -11734,7 +11771,7 @@
         <v>482</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>15</v>
@@ -11948,7 +11985,7 @@
         <v>509</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5" t="s">
@@ -12157,7 +12194,7 @@
         <v>535</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5" t="s">
@@ -12275,14 +12312,14 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>550</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="5" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5" t="s">
@@ -12305,7 +12342,7 @@
         <v>552</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5" t="s">
@@ -12376,7 +12413,7 @@
         <v>561</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5" t="s">
@@ -12472,7 +12509,7 @@
         <v>574</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5" t="s">
@@ -12522,7 +12559,7 @@
         <v>582</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>583</v>
@@ -12858,7 +12895,7 @@
         <v>108</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5" t="s">
@@ -12874,14 +12911,14 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4" t="s">
         <v>620</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5" t="s">
@@ -12927,7 +12964,7 @@
         <v>625</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5" t="s">
@@ -13117,7 +13154,7 @@
         <v>649</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5" t="s">
@@ -13332,7 +13369,7 @@
         <v>568</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5" t="s">
@@ -13355,7 +13392,7 @@
         <v>9</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5" t="s">
@@ -13764,7 +13801,7 @@
         <v>722</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="F257" s="5"/>
       <c r="G257" s="5" t="s">
@@ -13835,7 +13872,7 @@
         <v>731</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5" t="s">
@@ -13899,7 +13936,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>738</v>
@@ -13908,7 +13945,7 @@
         <v>739</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5" t="s">
@@ -14043,7 +14080,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>755</v>
@@ -14052,7 +14089,7 @@
         <v>74</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>756</v>
@@ -14104,7 +14141,7 @@
         <v>503</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>762</v>
@@ -14252,7 +14289,7 @@
         <v>781</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="5" t="s">
@@ -14300,7 +14337,7 @@
         <v>577</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="F279" s="5"/>
       <c r="G279" s="5" t="s">
@@ -14433,14 +14470,14 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5" t="s">
@@ -14705,7 +14742,7 @@
         <v>835</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="F296" s="5"/>
       <c r="G296" s="5" t="s">
@@ -14943,7 +14980,7 @@
         <v>9</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="F306" s="5"/>
       <c r="G306" s="5" t="s">
@@ -15127,7 +15164,7 @@
         <v>822</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="5" t="s">
@@ -15244,7 +15281,7 @@
         <v>353</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="F319" s="5"/>
       <c r="G319" s="5" t="s">
@@ -15618,7 +15655,7 @@
         <v>927</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="F335" s="5"/>
       <c r="G335" s="5" t="s">
@@ -15827,7 +15864,7 @@
         <v>199</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="F344" s="5"/>
       <c r="G344" s="5" t="s">
@@ -16021,7 +16058,7 @@
         <v>535</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="5" t="s">
@@ -16251,7 +16288,7 @@
         <v>74</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="F362" s="5"/>
       <c r="G362" s="5" t="s">
@@ -16481,7 +16518,7 @@
         <v>77</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F372" s="5"/>
       <c r="G372" s="5" t="s">
@@ -16504,7 +16541,7 @@
         <v>568</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5" t="s">
@@ -16573,7 +16610,7 @@
         <v>235</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="F376" s="5"/>
       <c r="G376" s="5" t="s">
@@ -16752,16 +16789,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C384" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>1032</v>
+        <v>2222</v>
       </c>
       <c r="F384" s="5"/>
       <c r="G384" s="5" t="s">
@@ -16769,7 +16806,7 @@
       </c>
       <c r="H384" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="16" customHeight="1">
@@ -16777,14 +16814,14 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F385" s="5"/>
       <c r="G385" s="5" t="s">
@@ -16800,17 +16837,17 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E386" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F386" s="5" t="s">
         <v>1035</v>
-      </c>
-      <c r="F386" s="5" t="s">
-        <v>1037</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>10</v>
@@ -16832,10 +16869,10 @@
         <v>95</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>10</v>
@@ -16850,16 +16887,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D388" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="C388" s="4" t="s">
+      <c r="E388" s="5" t="s">
         <v>1040</v>
-      </c>
-      <c r="D388" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>1042</v>
       </c>
       <c r="F388" s="5"/>
       <c r="G388" s="5" t="s">
@@ -16875,14 +16912,14 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="F389" s="5"/>
       <c r="G389" s="5" t="s">
@@ -16898,14 +16935,14 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="5" t="s">
@@ -16921,14 +16958,14 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F391" s="5"/>
       <c r="G391" s="5" t="s">
@@ -16944,14 +16981,14 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F392" s="5"/>
       <c r="G392" s="5" t="s">
@@ -16967,14 +17004,14 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F393" s="5"/>
       <c r="G393" s="5" t="s">
@@ -16990,14 +17027,14 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F394" s="5"/>
       <c r="G394" s="5" t="s">
@@ -17013,14 +17050,14 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="5" t="s">
@@ -17036,14 +17073,14 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="5" t="s">
@@ -17059,14 +17096,14 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F397" s="5"/>
       <c r="G397" s="5" t="s">
@@ -17082,14 +17119,14 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4" t="s">
         <v>971</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F398" s="5"/>
       <c r="G398" s="5" t="s">
@@ -17105,14 +17142,14 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4" t="s">
         <v>866</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F399" s="5"/>
       <c r="G399" s="5" t="s">
@@ -17128,14 +17165,14 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F400" s="5"/>
       <c r="G400" s="5" t="s">
@@ -17151,14 +17188,14 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="F401" s="5"/>
       <c r="G401" s="5" t="s">
@@ -17174,14 +17211,14 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F402" s="5"/>
       <c r="G402" s="5" t="s">
@@ -17197,14 +17234,14 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F403" s="5"/>
       <c r="G403" s="5" t="s">
@@ -17220,14 +17257,14 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F404" s="5"/>
       <c r="G404" s="5" t="s">
@@ -17243,14 +17280,14 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4" t="s">
         <v>971</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F405" s="5"/>
       <c r="G405" s="5" t="s">
@@ -17266,17 +17303,17 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F406" s="5" t="s">
         <v>1082</v>
-      </c>
-      <c r="E406" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F406" s="5" t="s">
-        <v>1084</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>10</v>
@@ -17291,14 +17328,14 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4" t="s">
         <v>1018</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F407" s="5"/>
       <c r="G407" s="5" t="s">
@@ -17314,17 +17351,17 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F408" s="5" t="s">
         <v>1088</v>
-      </c>
-      <c r="E408" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F408" s="5" t="s">
-        <v>1090</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>10</v>
@@ -17339,14 +17376,14 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="5" t="s">
@@ -17362,14 +17399,14 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="5" t="s">
@@ -17385,14 +17422,14 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4" t="s">
         <v>933</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F411" s="5"/>
       <c r="G411" s="5" t="s">
@@ -17408,14 +17445,14 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F412" s="5"/>
       <c r="G412" s="5" t="s">
@@ -17431,14 +17468,14 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F413" s="5"/>
       <c r="G413" s="5" t="s">
@@ -17454,14 +17491,14 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4" t="s">
         <v>492</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F414" s="5"/>
       <c r="G414" s="5" t="s">
@@ -17477,14 +17514,14 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="F415" s="5"/>
       <c r="G415" s="5" t="s">
@@ -17500,14 +17537,14 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F416" s="5"/>
       <c r="G416" s="5" t="s">
@@ -17523,14 +17560,14 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F417" s="5"/>
       <c r="G417" s="5" t="s">
@@ -17546,14 +17583,14 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4" t="s">
         <v>416</v>
       </c>
       <c r="E418" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F418" s="5"/>
       <c r="G418" s="5" t="s">
@@ -17569,14 +17606,14 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="F419" s="5"/>
       <c r="G419" s="5" t="s">
@@ -17592,14 +17629,14 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E420" s="5" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="F420" s="5"/>
       <c r="G420" s="5" t="s">
@@ -17615,17 +17652,17 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G421" s="5" t="s">
         <v>10</v>
@@ -17640,14 +17677,14 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4" t="s">
         <v>518</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="5" t="s">
@@ -17663,14 +17700,14 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="5" t="s">
@@ -17686,16 +17723,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D424" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="C424" s="4" t="s">
+      <c r="E424" s="5" t="s">
         <v>1122</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E424" s="5" t="s">
-        <v>1124</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="5" t="s">
@@ -17711,14 +17748,14 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F425" s="5"/>
       <c r="G425" s="5" t="s">
@@ -17734,14 +17771,14 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E426" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F426" s="5"/>
       <c r="G426" s="5" t="s">
@@ -17757,16 +17794,16 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D427" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>1130</v>
-      </c>
       <c r="E427" s="5" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F427" s="5"/>
       <c r="G427" s="5" t="s">
@@ -17782,14 +17819,14 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E428" s="5" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="F428" s="5"/>
       <c r="G428" s="5" t="s">
@@ -17805,14 +17842,14 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="F429" s="5"/>
       <c r="G429" s="5" t="s">
@@ -17828,19 +17865,19 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="C430" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F430" s="5" t="s">
         <v>1133</v>
-      </c>
-      <c r="D430" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E430" s="5" t="s">
-        <v>2160</v>
-      </c>
-      <c r="F430" s="5" t="s">
-        <v>1135</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>15</v>
@@ -17855,14 +17892,14 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="5" t="s">
@@ -17878,14 +17915,14 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="5" t="s">
@@ -17901,14 +17938,14 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F433" s="5"/>
       <c r="G433" s="5" t="s">
@@ -17924,14 +17961,14 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F434" s="5"/>
       <c r="G434" s="5" t="s">
@@ -17947,14 +17984,14 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4" t="s">
         <v>535</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F435" s="5"/>
       <c r="G435" s="5" t="s">
@@ -17970,14 +18007,14 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4" t="s">
         <v>971</v>
       </c>
       <c r="E436" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F436" s="5"/>
       <c r="G436" s="5" t="s">
@@ -17993,14 +18030,14 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E437" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F437" s="5"/>
       <c r="G437" s="5" t="s">
@@ -18016,14 +18053,14 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4" t="s">
         <v>471</v>
       </c>
       <c r="E438" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F438" s="5"/>
       <c r="G438" s="5" t="s">
@@ -18039,14 +18076,14 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F439" s="5"/>
       <c r="G439" s="5" t="s">
@@ -18062,14 +18099,14 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4" t="s">
         <v>971</v>
       </c>
       <c r="E440" s="5" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="F440" s="5"/>
       <c r="G440" s="5" t="s">
@@ -18085,19 +18122,19 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D441" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="E441" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F441" s="5" t="s">
         <v>1157</v>
-      </c>
-      <c r="D441" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E441" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F441" s="5" t="s">
-        <v>1159</v>
       </c>
       <c r="G441" s="5" t="s">
         <v>15</v>
@@ -18112,14 +18149,14 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E442" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F442" s="5"/>
       <c r="G442" s="5" t="s">
@@ -18135,16 +18172,16 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D443" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="E443" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="D443" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E443" s="5" t="s">
-        <v>1166</v>
       </c>
       <c r="F443" s="5"/>
       <c r="G443" s="5" t="s">
@@ -18160,16 +18197,16 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E444" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F444" s="5"/>
       <c r="G444" s="5" t="s">
@@ -18185,16 +18222,16 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D445" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D445" s="4" t="s">
-        <v>1171</v>
-      </c>
       <c r="E445" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F445" s="5"/>
       <c r="G445" s="5" t="s">
@@ -18210,14 +18247,14 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F446" s="5"/>
       <c r="G446" s="5" t="s">
@@ -18233,14 +18270,14 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E447" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F447" s="5"/>
       <c r="G447" s="5" t="s">
@@ -18256,14 +18293,14 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E448" s="5" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F448" s="5"/>
       <c r="G448" s="5" t="s">
@@ -18279,14 +18316,14 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E449" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F449" s="5"/>
       <c r="G449" s="5" t="s">
@@ -18309,7 +18346,7 @@
         <v>471</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F450" s="5"/>
       <c r="G450" s="5" t="s">
@@ -18325,14 +18362,14 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E451" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F451" s="5"/>
       <c r="G451" s="5" t="s">
@@ -18348,12 +18385,12 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F452" s="5"/>
       <c r="G452" s="5" t="s">
@@ -18369,14 +18406,14 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F453" s="5"/>
       <c r="G453" s="5" t="s">
@@ -18392,14 +18429,14 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F454" s="5"/>
       <c r="G454" s="5" t="s">
@@ -18415,14 +18452,14 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E455" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F455" s="5"/>
       <c r="G455" s="5" t="s">
@@ -18438,14 +18475,14 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E456" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F456" s="5"/>
       <c r="G456" s="5" t="s">
@@ -18461,14 +18498,14 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4" t="s">
         <v>866</v>
       </c>
       <c r="E457" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F457" s="5"/>
       <c r="G457" s="5" t="s">
@@ -18484,14 +18521,14 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F458" s="5"/>
       <c r="G458" s="5" t="s">
@@ -18507,14 +18544,14 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F459" s="5"/>
       <c r="G459" s="5" t="s">
@@ -18530,16 +18567,16 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>669</v>
       </c>
       <c r="E460" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F460" s="5"/>
       <c r="G460" s="5" t="s">
@@ -18555,14 +18592,14 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E461" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F461" s="5"/>
       <c r="G461" s="5" t="s">
@@ -18578,14 +18615,14 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4" t="s">
         <v>863</v>
       </c>
       <c r="E462" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="5" t="s">
@@ -18601,14 +18638,14 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F463" s="5"/>
       <c r="G463" s="5" t="s">
@@ -18624,14 +18661,14 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F464" s="5"/>
       <c r="G464" s="5" t="s">
@@ -18647,14 +18684,14 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F465" s="5"/>
       <c r="G465" s="5" t="s">
@@ -18670,14 +18707,14 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F466" s="5"/>
       <c r="G466" s="5" t="s">
@@ -18693,14 +18730,14 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E467" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F467" s="5"/>
       <c r="G467" s="5" t="s">
@@ -18716,14 +18753,14 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F468" s="5"/>
       <c r="G468" s="5" t="s">
@@ -18739,14 +18776,14 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E469" s="5" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="F469" s="5"/>
       <c r="G469" s="5" t="s">
@@ -18762,14 +18799,14 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E470" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F470" s="5"/>
       <c r="G470" s="5" t="s">
@@ -18785,14 +18822,14 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C471" s="4"/>
       <c r="D471" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E471" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F471" s="5"/>
       <c r="G471" s="5" t="s">
@@ -18808,14 +18845,14 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C472" s="4"/>
       <c r="D472" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E472" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F472" s="5"/>
       <c r="G472" s="5" t="s">
@@ -18831,14 +18868,14 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E473" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F473" s="5"/>
       <c r="G473" s="5" t="s">
@@ -18854,14 +18891,14 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="F474" s="5"/>
       <c r="G474" s="5" t="s">
@@ -18877,14 +18914,14 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F475" s="5"/>
       <c r="G475" s="5" t="s">
@@ -18900,14 +18937,14 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F476" s="5"/>
       <c r="G476" s="5" t="s">
@@ -18923,14 +18960,14 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F477" s="5"/>
       <c r="G477" s="5" t="s">
@@ -18946,14 +18983,14 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="5" t="s">
@@ -18969,14 +19006,14 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F479" s="5"/>
       <c r="G479" s="5" t="s">
@@ -18992,14 +19029,14 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F480" s="5"/>
       <c r="G480" s="5" t="s">
@@ -19015,14 +19052,14 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5" t="s">
@@ -19042,10 +19079,10 @@
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F482" s="5"/>
       <c r="G482" s="5" t="s">
@@ -19061,14 +19098,14 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F483" s="5"/>
       <c r="G483" s="5" t="s">
@@ -19084,14 +19121,14 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F484" s="5"/>
       <c r="G484" s="5" t="s">
@@ -19107,14 +19144,14 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E485" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F485" s="5"/>
       <c r="G485" s="5" t="s">
@@ -19130,14 +19167,14 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C486" s="4"/>
       <c r="D486" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F486" s="5"/>
       <c r="G486" s="5" t="s">
@@ -19153,14 +19190,14 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F487" s="5"/>
       <c r="G487" s="5" t="s">
@@ -19176,14 +19213,14 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F488" s="5"/>
       <c r="G488" s="5" t="s">
@@ -19199,14 +19236,14 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E489" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F489" s="5"/>
       <c r="G489" s="5" t="s">
@@ -19222,14 +19259,14 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4" t="s">
         <v>363</v>
       </c>
       <c r="E490" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F490" s="5"/>
       <c r="G490" s="5" t="s">
@@ -19245,14 +19282,14 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E491" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F491" s="5"/>
       <c r="G491" s="5" t="s">
@@ -19268,14 +19305,14 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E492" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F492" s="5"/>
       <c r="G492" s="5" t="s">
@@ -19291,14 +19328,14 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F493" s="5"/>
       <c r="G493" s="5" t="s">
@@ -19314,14 +19351,14 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F494" s="5"/>
       <c r="G494" s="5" t="s">
@@ -19337,14 +19374,14 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F495" s="5"/>
       <c r="G495" s="5" t="s">
@@ -19360,14 +19397,14 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F496" s="5"/>
       <c r="G496" s="5" t="s">
@@ -19383,14 +19420,14 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4" t="s">
         <v>646</v>
       </c>
       <c r="E497" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F497" s="5"/>
       <c r="G497" s="5" t="s">
@@ -19406,14 +19443,14 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C498" s="4"/>
       <c r="D498" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E498" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F498" s="5"/>
       <c r="G498" s="5" t="s">
@@ -19429,14 +19466,14 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C499" s="4"/>
       <c r="D499" s="4" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E499" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F499" s="5"/>
       <c r="G499" s="5" t="s">
@@ -19452,14 +19489,14 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4" t="s">
         <v>535</v>
       </c>
       <c r="E500" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F500" s="5"/>
       <c r="G500" s="5" t="s">
@@ -19475,14 +19512,14 @@
         <v>500</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E501" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F501" s="5"/>
       <c r="G501" s="5" t="s">
@@ -19498,19 +19535,19 @@
         <v>501</v>
       </c>
       <c r="B502" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D502" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="C502" s="4" t="s">
+      <c r="E502" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F502" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="D502" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E502" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>1277</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>34</v>
@@ -19525,14 +19562,14 @@
         <v>502</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F503" s="5"/>
       <c r="G503" s="5" t="s">
@@ -19555,7 +19592,7 @@
         <v>526</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F504" s="5"/>
       <c r="G504" s="5" t="s">
@@ -19571,14 +19608,14 @@
         <v>504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C505" s="4"/>
       <c r="D505" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E505" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5" t="s">
@@ -19594,14 +19631,14 @@
         <v>505</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C506" s="4"/>
       <c r="D506" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F506" s="5"/>
       <c r="G506" s="5" t="s">
@@ -19617,17 +19654,17 @@
         <v>506</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C507" s="4"/>
       <c r="D507" s="4" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E507" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>15</v>
@@ -19642,14 +19679,14 @@
         <v>507</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4" t="s">
         <v>311</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F508" s="5"/>
       <c r="G508" s="5" t="s">
@@ -19665,14 +19702,14 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4" t="s">
         <v>311</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F509" s="5"/>
       <c r="G509" s="5" t="s">
@@ -19688,19 +19725,19 @@
         <v>509</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E510" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G510" s="5" t="s">
         <v>15</v>
@@ -19715,19 +19752,19 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D511" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="C511" s="4" t="s">
+      <c r="E511" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F511" s="5" t="s">
         <v>1295</v>
-      </c>
-      <c r="D511" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E511" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F511" s="5" t="s">
-        <v>1297</v>
       </c>
       <c r="G511" s="5" t="s">
         <v>15</v>
@@ -19742,14 +19779,14 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F512" s="5"/>
       <c r="G512" s="5" t="s">
@@ -19765,14 +19802,14 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F513" s="5"/>
       <c r="G513" s="5" t="s">
@@ -19788,14 +19825,14 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F514" s="5"/>
       <c r="G514" s="5" t="s">
@@ -19811,14 +19848,14 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4" t="s">
         <v>332</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F515" s="5"/>
       <c r="G515" s="5" t="s">
@@ -19834,14 +19871,14 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E516" s="5" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="F516" s="5"/>
       <c r="G516" s="5" t="s">
@@ -19857,14 +19894,14 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E517" s="5" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="F517" s="5"/>
       <c r="G517" s="5" t="s">
@@ -19880,14 +19917,14 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E518" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F518" s="5"/>
       <c r="G518" s="5" t="s">
@@ -19903,14 +19940,14 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E519" s="5" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="F519" s="5"/>
       <c r="G519" s="5" t="s">
@@ -19926,14 +19963,14 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E520" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F520" s="5"/>
       <c r="G520" s="5" t="s">
@@ -19949,14 +19986,14 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E521" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F521" s="5"/>
       <c r="G521" s="5" t="s">
@@ -19972,14 +20009,14 @@
         <v>521</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E522" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F522" s="5"/>
       <c r="G522" s="5" t="s">
@@ -19995,16 +20032,16 @@
         <v>522</v>
       </c>
       <c r="B523" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D523" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="C523" s="4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D523" s="4" t="s">
-        <v>1322</v>
-      </c>
       <c r="E523" s="5" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="F523" s="5"/>
       <c r="G523" s="5" t="s">
@@ -20020,14 +20057,14 @@
         <v>523</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E524" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F524" s="5"/>
       <c r="G524" s="5" t="s">
@@ -20043,14 +20080,14 @@
         <v>524</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E525" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F525" s="5"/>
       <c r="G525" s="5" t="s">
@@ -20066,14 +20103,14 @@
         <v>525</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E526" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F526" s="5"/>
       <c r="G526" s="5" t="s">
@@ -20089,14 +20126,14 @@
         <v>526</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E527" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F527" s="5"/>
       <c r="G527" s="5" t="s">
@@ -20112,14 +20149,14 @@
         <v>527</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C528" s="4"/>
       <c r="D528" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E528" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F528" s="5"/>
       <c r="G528" s="5" t="s">
@@ -20135,14 +20172,14 @@
         <v>528</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C529" s="4"/>
       <c r="D529" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E529" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F529" s="5"/>
       <c r="G529" s="5" t="s">
@@ -20158,14 +20195,14 @@
         <v>529</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C530" s="4"/>
       <c r="D530" s="4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E530" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F530" s="5"/>
       <c r="G530" s="5" t="s">
@@ -20181,14 +20218,14 @@
         <v>530</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E531" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F531" s="5"/>
       <c r="G531" s="5" t="s">
@@ -20204,14 +20241,14 @@
         <v>531</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E532" s="5" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="F532" s="5"/>
       <c r="G532" s="5" t="s">
@@ -20227,14 +20264,14 @@
         <v>532</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E533" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F533" s="5"/>
       <c r="G533" s="5" t="s">
@@ -20250,19 +20287,19 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E534" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>15</v>
@@ -20277,14 +20314,14 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E535" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F535" s="5"/>
       <c r="G535" s="5" t="s">
@@ -20300,14 +20337,14 @@
         <v>535</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E536" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F536" s="5"/>
       <c r="G536" s="5" t="s">
@@ -20323,14 +20360,14 @@
         <v>536</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E537" s="5" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="F537" s="5"/>
       <c r="G537" s="5" t="s">
@@ -20346,14 +20383,14 @@
         <v>537</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E538" s="5" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="F538" s="5"/>
       <c r="G538" s="5" t="s">
@@ -20369,14 +20406,14 @@
         <v>538</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C539" s="4"/>
       <c r="D539" s="4" t="s">
         <v>363</v>
       </c>
       <c r="E539" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F539" s="5"/>
       <c r="G539" s="5" t="s">
@@ -20392,16 +20429,16 @@
         <v>539</v>
       </c>
       <c r="B540" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D540" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="C540" s="4" t="s">
+      <c r="E540" s="5" t="s">
         <v>1355</v>
-      </c>
-      <c r="D540" s="4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E540" s="5" t="s">
-        <v>1357</v>
       </c>
       <c r="F540" s="5"/>
       <c r="G540" s="5" t="s">
@@ -20417,14 +20454,14 @@
         <v>540</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E541" s="5" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="F541" s="5"/>
       <c r="G541" s="5" t="s">
@@ -20440,14 +20477,14 @@
         <v>541</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E542" s="5" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="F542" s="5"/>
       <c r="G542" s="5" t="s">
@@ -20463,14 +20500,14 @@
         <v>542</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E543" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F543" s="5"/>
       <c r="G543" s="5" t="s">
@@ -20486,14 +20523,14 @@
         <v>543</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4" t="s">
         <v>515</v>
       </c>
       <c r="E544" s="5" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="F544" s="5"/>
       <c r="G544" s="5" t="s">
@@ -20509,14 +20546,14 @@
         <v>544</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E545" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F545" s="5"/>
       <c r="G545" s="5" t="s">
@@ -20532,12 +20569,12 @@
         <v>545</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F546" s="5"/>
       <c r="G546" s="5" t="s">
@@ -20553,16 +20590,16 @@
         <v>546</v>
       </c>
       <c r="B547" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D547" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="C547" s="4" t="s">
+      <c r="E547" s="5" t="s">
         <v>1368</v>
-      </c>
-      <c r="D547" s="4" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E547" s="5" t="s">
-        <v>1370</v>
       </c>
       <c r="F547" s="5"/>
       <c r="G547" s="5" t="s">
@@ -20578,14 +20615,14 @@
         <v>547</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4" t="s">
         <v>692</v>
       </c>
       <c r="E548" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F548" s="5"/>
       <c r="G548" s="5" t="s">
@@ -20601,14 +20638,14 @@
         <v>548</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E549" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F549" s="5"/>
       <c r="G549" s="5" t="s">
@@ -20624,14 +20661,14 @@
         <v>549</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4" t="s">
         <v>692</v>
       </c>
       <c r="E550" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F550" s="5"/>
       <c r="G550" s="5" t="s">
@@ -20647,14 +20684,14 @@
         <v>550</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E551" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F551" s="5"/>
       <c r="G551" s="5" t="s">
@@ -20670,12 +20707,12 @@
         <v>551</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F552" s="5"/>
       <c r="G552" s="5" t="s">
@@ -20691,14 +20728,14 @@
         <v>552</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E553" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F553" s="5"/>
       <c r="G553" s="5" t="s">
@@ -20714,14 +20751,14 @@
         <v>553</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4" t="s">
         <v>692</v>
       </c>
       <c r="E554" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F554" s="5"/>
       <c r="G554" s="5" t="s">
@@ -20737,14 +20774,14 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4" t="s">
         <v>577</v>
       </c>
       <c r="E555" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F555" s="5"/>
       <c r="G555" s="5" t="s">
@@ -20760,14 +20797,14 @@
         <v>555</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E556" s="5" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="F556" s="5"/>
       <c r="G556" s="5" t="s">
@@ -20783,14 +20820,14 @@
         <v>556</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E557" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F557" s="5"/>
       <c r="G557" s="5" t="s">
@@ -20806,19 +20843,19 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E558" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="C558" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D558" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E558" s="5" t="s">
-        <v>1389</v>
-      </c>
       <c r="F558" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="G558" s="5" t="s">
         <v>15</v>
@@ -20833,14 +20870,14 @@
         <v>558</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E559" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F559" s="5"/>
       <c r="G559" s="5" t="s">
@@ -20856,15 +20893,15 @@
         <v>559</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F560" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="G560" s="5" t="s">
         <v>15</v>
@@ -20879,14 +20916,14 @@
         <v>560</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E561" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F561" s="5"/>
       <c r="G561" s="5" t="s">
@@ -20902,14 +20939,14 @@
         <v>561</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E562" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F562" s="5"/>
       <c r="G562" s="5" t="s">
@@ -20925,14 +20962,14 @@
         <v>562</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E563" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F563" s="5"/>
       <c r="G563" s="5" t="s">
@@ -20948,14 +20985,14 @@
         <v>563</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E564" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F564" s="5"/>
       <c r="G564" s="5" t="s">
@@ -20971,14 +21008,14 @@
         <v>564</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E565" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F565" s="5"/>
       <c r="G565" s="5" t="s">
@@ -20994,14 +21031,14 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E566" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F566" s="5" t="s">
         <v>380</v>
@@ -21019,14 +21056,14 @@
         <v>566</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E567" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F567" s="5"/>
       <c r="G567" s="5" t="s">
@@ -21042,14 +21079,14 @@
         <v>567</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E568" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F568" s="5"/>
       <c r="G568" s="5" t="s">
@@ -21065,14 +21102,14 @@
         <v>568</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E569" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F569" s="5"/>
       <c r="G569" s="5" t="s">
@@ -21088,14 +21125,14 @@
         <v>569</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E570" s="5" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="F570" s="5"/>
       <c r="G570" s="5" t="s">
@@ -21111,14 +21148,14 @@
         <v>570</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E571" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F571" s="5"/>
       <c r="G571" s="5" t="s">
@@ -21134,14 +21171,14 @@
         <v>571</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4" t="s">
         <v>822</v>
       </c>
       <c r="E572" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F572" s="5"/>
       <c r="G572" s="5" t="s">
@@ -21157,14 +21194,14 @@
         <v>572</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E573" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F573" s="5"/>
       <c r="G573" s="5" t="s">
@@ -21180,14 +21217,14 @@
         <v>573</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E574" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F574" s="5"/>
       <c r="G574" s="5" t="s">
@@ -21203,16 +21240,16 @@
         <v>574</v>
       </c>
       <c r="B575" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C575" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D575" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="C575" s="4" t="s">
+      <c r="E575" s="5" t="s">
         <v>1422</v>
-      </c>
-      <c r="D575" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E575" s="5" t="s">
-        <v>1424</v>
       </c>
       <c r="F575" s="5"/>
       <c r="G575" s="5" t="s">
@@ -21228,14 +21265,14 @@
         <v>575</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E576" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F576" s="5"/>
       <c r="G576" s="5" t="s">
@@ -21251,14 +21288,14 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C577" s="4"/>
       <c r="D577" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E577" s="5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F577" s="5"/>
       <c r="G577" s="5" t="s">
@@ -21274,14 +21311,14 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E578" s="5" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F578" s="5"/>
       <c r="G578" s="5" t="s">
@@ -21297,14 +21334,14 @@
         <v>578</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E579" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F579" s="5"/>
       <c r="G579" s="5" t="s">
@@ -21320,14 +21357,14 @@
         <v>579</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E580" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F580" s="5"/>
       <c r="G580" s="5" t="s">
@@ -21343,14 +21380,14 @@
         <v>580</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C581" s="4"/>
       <c r="D581" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E581" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F581" s="5"/>
       <c r="G581" s="5" t="s">
@@ -21366,14 +21403,14 @@
         <v>581</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E582" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F582" s="5"/>
       <c r="G582" s="5" t="s">
@@ -21389,14 +21426,14 @@
         <v>582</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C583" s="4"/>
       <c r="D583" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E583" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F583" s="5"/>
       <c r="G583" s="5" t="s">
@@ -21412,14 +21449,14 @@
         <v>583</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C584" s="4"/>
       <c r="D584" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E584" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F584" s="5"/>
       <c r="G584" s="5" t="s">
@@ -21435,14 +21472,14 @@
         <v>584</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E585" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F585" s="5"/>
       <c r="G585" s="5" t="s">
@@ -21458,14 +21495,14 @@
         <v>585</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4" t="s">
         <v>363</v>
       </c>
       <c r="E586" s="5" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="F586" s="5"/>
       <c r="G586" s="5" t="s">
@@ -21481,14 +21518,14 @@
         <v>586</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E587" s="5" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="F587" s="5"/>
       <c r="G587" s="5" t="s">
@@ -21504,14 +21541,14 @@
         <v>587</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E588" s="5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F588" s="5"/>
       <c r="G588" s="5" t="s">
@@ -21527,14 +21564,14 @@
         <v>588</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E589" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F589" s="5"/>
       <c r="G589" s="5" t="s">
@@ -21550,14 +21587,14 @@
         <v>589</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E590" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F590" s="5"/>
       <c r="G590" s="5" t="s">
@@ -21573,16 +21610,16 @@
         <v>590</v>
       </c>
       <c r="B591" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C591" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D591" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C591" s="4" t="s">
+      <c r="E591" s="5" t="s">
         <v>1455</v>
-      </c>
-      <c r="D591" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E591" s="5" t="s">
-        <v>1457</v>
       </c>
       <c r="F591" s="5"/>
       <c r="G591" s="5" t="s">
@@ -21598,16 +21635,16 @@
         <v>591</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E592" s="5" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F592" s="5"/>
       <c r="G592" s="5" t="s">
@@ -21623,16 +21660,16 @@
         <v>592</v>
       </c>
       <c r="B593" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D593" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="C593" s="4" t="s">
+      <c r="E593" s="5" t="s">
         <v>1460</v>
-      </c>
-      <c r="D593" s="4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E593" s="5" t="s">
-        <v>1462</v>
       </c>
       <c r="F593" s="5"/>
       <c r="G593" s="5" t="s">
@@ -21648,16 +21685,16 @@
         <v>593</v>
       </c>
       <c r="B594" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D594" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="C594" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D594" s="4" t="s">
-        <v>1465</v>
-      </c>
       <c r="E594" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F594" s="5"/>
       <c r="G594" s="5" t="s">
@@ -21673,16 +21710,16 @@
         <v>594</v>
       </c>
       <c r="B595" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D595" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="C595" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D595" s="4" t="s">
-        <v>1468</v>
-      </c>
       <c r="E595" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F595" s="5"/>
       <c r="G595" s="5" t="s">
@@ -21698,16 +21735,16 @@
         <v>595</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D596" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E596" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F596" s="5"/>
       <c r="G596" s="5" t="s">
@@ -21723,16 +21760,16 @@
         <v>596</v>
       </c>
       <c r="B597" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D597" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="C597" s="4" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D597" s="4" t="s">
-        <v>1473</v>
-      </c>
       <c r="E597" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F597" s="5"/>
       <c r="G597" s="5" t="s">
@@ -21748,16 +21785,16 @@
         <v>597</v>
       </c>
       <c r="B598" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D598" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="C598" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D598" s="4" t="s">
-        <v>1476</v>
-      </c>
       <c r="E598" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F598" s="5"/>
       <c r="G598" s="5" t="s">
@@ -21773,14 +21810,14 @@
         <v>598</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E599" s="5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F599" s="5"/>
       <c r="G599" s="5" t="s">
@@ -21796,16 +21833,16 @@
         <v>599</v>
       </c>
       <c r="B600" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D600" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="C600" s="4" t="s">
+      <c r="E600" s="5" t="s">
         <v>1480</v>
-      </c>
-      <c r="D600" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E600" s="5" t="s">
-        <v>1482</v>
       </c>
       <c r="F600" s="5"/>
       <c r="G600" s="5" t="s">
@@ -21821,14 +21858,14 @@
         <v>600</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C601" s="4"/>
       <c r="D601" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E601" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F601" s="5"/>
       <c r="G601" s="5" t="s">
@@ -21844,14 +21881,14 @@
         <v>601</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C602" s="4"/>
       <c r="D602" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E602" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F602" s="5"/>
       <c r="G602" s="5" t="s">
@@ -21867,14 +21904,14 @@
         <v>602</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C603" s="4"/>
       <c r="D603" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E603" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F603" s="5"/>
       <c r="G603" s="5" t="s">
@@ -21893,13 +21930,13 @@
         <v>729</v>
       </c>
       <c r="C604" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E604" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="D604" s="4" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E604" s="5" t="s">
-        <v>1491</v>
       </c>
       <c r="F604" s="5"/>
       <c r="G604" s="5" t="s">
@@ -21915,14 +21952,14 @@
         <v>604</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C605" s="4"/>
       <c r="D605" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E605" s="5" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F605" s="5"/>
       <c r="G605" s="5" t="s">
@@ -21938,19 +21975,19 @@
         <v>605</v>
       </c>
       <c r="B606" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D606" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="C606" s="4" t="s">
+      <c r="E606" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="D606" s="4" t="s">
+      <c r="F606" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="E606" s="5" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F606" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="G606" s="5" t="s">
         <v>15</v>
@@ -21965,10 +22002,10 @@
         <v>606</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D607" s="4" t="s">
         <v>835</v>
@@ -21990,16 +22027,16 @@
         <v>607</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D608" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E608" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F608" s="5"/>
       <c r="G608" s="5" t="s">
@@ -22015,14 +22052,14 @@
         <v>608</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C609" s="4"/>
       <c r="D609" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E609" s="5" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="F609" s="5"/>
       <c r="G609" s="5" t="s">
@@ -22038,16 +22075,16 @@
         <v>609</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D610" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E610" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F610" s="5"/>
       <c r="G610" s="5" t="s">
@@ -22063,16 +22100,16 @@
         <v>610</v>
       </c>
       <c r="B611" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D611" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="C611" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D611" s="4" t="s">
-        <v>1509</v>
-      </c>
       <c r="E611" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F611" s="5"/>
       <c r="G611" s="5" t="s">
@@ -22088,16 +22125,16 @@
         <v>611</v>
       </c>
       <c r="B612" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D612" s="4" t="s">
         <v>1510</v>
       </c>
-      <c r="C612" s="4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D612" s="4" t="s">
-        <v>1512</v>
-      </c>
       <c r="E612" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F612" s="5"/>
       <c r="G612" s="5" t="s">
@@ -22113,7 +22150,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4" t="s">
@@ -22136,10 +22173,10 @@
         <v>613</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D614" s="4" t="s">
         <v>615</v>
@@ -22161,13 +22198,13 @@
         <v>614</v>
       </c>
       <c r="B615" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D615" s="4" t="s">
         <v>1516</v>
-      </c>
-      <c r="C615" s="4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D615" s="4" t="s">
-        <v>1518</v>
       </c>
       <c r="E615" s="5" t="s">
         <v>205</v>
@@ -22186,11 +22223,11 @@
         <v>615</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C616" s="4"/>
       <c r="D616" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E616" s="5" t="s">
         <v>205</v>
@@ -22209,13 +22246,13 @@
         <v>616</v>
       </c>
       <c r="B617" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D617" s="4" t="s">
         <v>1521</v>
-      </c>
-      <c r="C617" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D617" s="4" t="s">
-        <v>1523</v>
       </c>
       <c r="E617" s="5" t="s">
         <v>205</v>
@@ -22234,16 +22271,16 @@
         <v>617</v>
       </c>
       <c r="B618" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D618" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="C618" s="4" t="s">
+      <c r="E618" s="5" t="s">
         <v>1525</v>
-      </c>
-      <c r="D618" s="4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E618" s="5" t="s">
-        <v>1527</v>
       </c>
       <c r="F618" s="5"/>
       <c r="G618" s="5" t="s">
@@ -22259,11 +22296,11 @@
         <v>618</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="C619" s="4"/>
       <c r="D619" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E619" s="5" t="s">
         <v>228</v>
@@ -22282,11 +22319,11 @@
         <v>619</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C620" s="4"/>
       <c r="D620" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E620" s="5" t="s">
         <v>261</v>
@@ -22305,16 +22342,16 @@
         <v>620</v>
       </c>
       <c r="B621" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D621" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="C621" s="4" t="s">
+      <c r="E621" s="5" t="s">
         <v>1532</v>
-      </c>
-      <c r="D621" s="4" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E621" s="5" t="s">
-        <v>1534</v>
       </c>
       <c r="F621" s="5"/>
       <c r="G621" s="5" t="s">
@@ -22330,11 +22367,11 @@
         <v>621</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E622" s="5" t="s">
         <v>288</v>
@@ -22353,11 +22390,11 @@
         <v>622</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C623" s="4"/>
       <c r="D623" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E623" s="5" t="s">
         <v>288</v>
@@ -22376,11 +22413,11 @@
         <v>623</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C624" s="4"/>
       <c r="D624" s="4" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E624" s="5" t="s">
         <v>288</v>
@@ -22399,14 +22436,14 @@
         <v>624</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E625" s="5" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F625" s="5"/>
       <c r="G625" s="5" t="s">
@@ -22422,16 +22459,16 @@
         <v>625</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D626" s="4" t="s">
         <v>835</v>
       </c>
       <c r="E626" s="5" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="F626" s="5"/>
       <c r="G626" s="5" t="s">
@@ -22447,16 +22484,16 @@
         <v>626</v>
       </c>
       <c r="B627" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D627" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="C627" s="4" t="s">
+      <c r="E627" s="5" t="s">
         <v>1548</v>
-      </c>
-      <c r="D627" s="4" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E627" s="5" t="s">
-        <v>1550</v>
       </c>
       <c r="F627" s="5"/>
       <c r="G627" s="5" t="s">
@@ -22475,13 +22512,13 @@
         <v>740</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D628" s="4" t="s">
         <v>741</v>
       </c>
       <c r="E628" s="5" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="F628" s="5"/>
       <c r="G628" s="5" t="s">
@@ -22497,14 +22534,14 @@
         <v>628</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C629" s="4"/>
       <c r="D629" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E629" s="5" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F629" s="5"/>
       <c r="G629" s="5" t="s">
@@ -22520,14 +22557,14 @@
         <v>629</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C630" s="4"/>
       <c r="D630" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E630" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F630" s="5"/>
       <c r="G630" s="5" t="s">
@@ -22543,16 +22580,16 @@
         <v>630</v>
       </c>
       <c r="B631" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D631" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="C631" s="4" t="s">
+      <c r="E631" s="5" t="s">
         <v>1556</v>
-      </c>
-      <c r="D631" s="4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E631" s="5" t="s">
-        <v>1558</v>
       </c>
       <c r="F631" s="5"/>
       <c r="G631" s="5" t="s">
@@ -22568,14 +22605,14 @@
         <v>631</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C632" s="4"/>
       <c r="D632" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E632" s="5" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F632" s="5"/>
       <c r="G632" s="5" t="s">
@@ -22591,19 +22628,19 @@
         <v>632</v>
       </c>
       <c r="B633" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D633" s="4" t="s">
         <v>1562</v>
       </c>
-      <c r="C633" s="4" t="s">
+      <c r="E633" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F633" s="5" t="s">
         <v>1563</v>
-      </c>
-      <c r="D633" s="4" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E633" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F633" s="5" t="s">
-        <v>1565</v>
       </c>
       <c r="G633" s="5" t="s">
         <v>15</v>
@@ -22618,17 +22655,17 @@
         <v>633</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E634" s="5" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F634" s="5" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G634" s="5" t="s">
         <v>15</v>
@@ -22643,19 +22680,19 @@
         <v>634</v>
       </c>
       <c r="B635" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D635" s="4" t="s">
         <v>1568</v>
       </c>
-      <c r="C635" s="4" t="s">
+      <c r="E635" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F635" s="5" t="s">
         <v>1569</v>
-      </c>
-      <c r="D635" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E635" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F635" s="5" t="s">
-        <v>1571</v>
       </c>
       <c r="G635" s="5" t="s">
         <v>15</v>
@@ -22670,19 +22707,19 @@
         <v>635</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D636" s="4" t="s">
         <v>739</v>
       </c>
       <c r="E636" s="5" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="F636" s="5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G636" s="5" t="s">
         <v>15</v>
@@ -22697,14 +22734,14 @@
         <v>636</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E637" s="5" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="F637" s="5"/>
       <c r="G637" s="5" t="s">
@@ -22720,14 +22757,14 @@
         <v>637</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E638" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="F638" s="5"/>
       <c r="G638" s="5" t="s">
@@ -22743,14 +22780,14 @@
         <v>638</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E639" s="5" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="F639" s="5"/>
       <c r="G639" s="5" t="s">
@@ -22766,14 +22803,14 @@
         <v>639</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E640" s="5" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="F640" s="5"/>
       <c r="G640" s="5" t="s">
@@ -22789,14 +22826,14 @@
         <v>640</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E641" s="5" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F641" s="5"/>
       <c r="G641" s="5" t="s">
@@ -22812,11 +22849,11 @@
         <v>641</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E642" s="5" t="s">
         <v>354</v>
@@ -22835,14 +22872,14 @@
         <v>642</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C643" s="4"/>
       <c r="D643" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E643" s="5" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="F643" s="5"/>
       <c r="G643" s="5" t="s">
@@ -22858,13 +22895,13 @@
         <v>643</v>
       </c>
       <c r="B644" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D644" s="4" t="s">
         <v>1591</v>
-      </c>
-      <c r="C644" s="4" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D644" s="4" t="s">
-        <v>1593</v>
       </c>
       <c r="E644" s="5" t="s">
         <v>354</v>
@@ -22883,13 +22920,13 @@
         <v>644</v>
       </c>
       <c r="B645" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D645" s="4" t="s">
         <v>1594</v>
-      </c>
-      <c r="C645" s="4" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D645" s="4" t="s">
-        <v>1596</v>
       </c>
       <c r="E645" s="5" t="s">
         <v>354</v>
@@ -22908,13 +22945,13 @@
         <v>645</v>
       </c>
       <c r="B646" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D646" s="4" t="s">
         <v>1597</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D646" s="4" t="s">
-        <v>1599</v>
       </c>
       <c r="E646" s="5" t="s">
         <v>354</v>
@@ -22933,13 +22970,13 @@
         <v>646</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E647" s="5" t="s">
         <v>354</v>
@@ -22958,13 +22995,13 @@
         <v>647</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E648" s="5" t="s">
         <v>354</v>
@@ -22983,11 +23020,11 @@
         <v>648</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E649" s="5" t="s">
         <v>354</v>
@@ -23006,11 +23043,11 @@
         <v>649</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E650" s="5" t="s">
         <v>354</v>
@@ -23029,14 +23066,14 @@
         <v>650</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E651" s="5" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="F651" s="5"/>
       <c r="G651" s="5" t="s">
@@ -23052,14 +23089,14 @@
         <v>651</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E652" s="5" t="s">
-        <v>2175</v>
+        <v>2229</v>
       </c>
       <c r="F652" s="5"/>
       <c r="G652" s="5" t="s">
@@ -23067,7 +23104,7 @@
       </c>
       <c r="H652" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="653" spans="1:8" ht="16" customHeight="1">
@@ -23075,16 +23112,16 @@
         <v>652</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E653" s="5" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F653" s="5"/>
       <c r="G653" s="5" t="s">
@@ -23100,16 +23137,16 @@
         <v>653</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E654" s="5" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F654" s="5"/>
       <c r="G654" s="5" t="s">
@@ -23125,14 +23162,14 @@
         <v>654</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E655" s="5" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="F655" s="5"/>
       <c r="G655" s="5" t="s">
@@ -23148,14 +23185,14 @@
         <v>655</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E656" s="5" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="F656" s="5"/>
       <c r="G656" s="5" t="s">
@@ -23171,7 +23208,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4" t="s">
@@ -23194,18 +23231,18 @@
         <v>657</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E658" s="5" t="s">
         <v>482</v>
       </c>
       <c r="F658" s="5"/>
       <c r="G658" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H658" s="6">
         <f t="shared" si="10"/>
@@ -23217,18 +23254,18 @@
         <v>658</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E659" s="5" t="s">
         <v>482</v>
       </c>
       <c r="F659" s="5"/>
       <c r="G659" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H659" s="6">
         <f t="shared" si="10"/>
@@ -23240,16 +23277,16 @@
         <v>659</v>
       </c>
       <c r="B660" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D660" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="C660" s="4" t="s">
+      <c r="E660" s="5" t="s">
         <v>1625</v>
-      </c>
-      <c r="D660" s="4" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E660" s="5" t="s">
-        <v>1627</v>
       </c>
       <c r="F660" s="5"/>
       <c r="G660" s="5" t="s">
@@ -23265,16 +23302,16 @@
         <v>660</v>
       </c>
       <c r="B661" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D661" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="C661" s="4" t="s">
+      <c r="E661" s="5" t="s">
         <v>1629</v>
-      </c>
-      <c r="D661" s="4" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E661" s="5" t="s">
-        <v>1631</v>
       </c>
       <c r="F661" s="5"/>
       <c r="G661" s="5" t="s">
@@ -23290,16 +23327,16 @@
         <v>661</v>
       </c>
       <c r="B662" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D662" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="C662" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D662" s="4" t="s">
-        <v>1634</v>
-      </c>
       <c r="E662" s="5" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="F662" s="5"/>
       <c r="G662" s="5" t="s">
@@ -23315,11 +23352,11 @@
         <v>662</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E663" s="5" t="s">
         <v>500</v>
@@ -23338,14 +23375,14 @@
         <v>663</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E664" s="5" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F664" s="5"/>
       <c r="G664" s="5" t="s">
@@ -23361,16 +23398,16 @@
         <v>664</v>
       </c>
       <c r="B665" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D665" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="C665" s="4" t="s">
+      <c r="E665" s="5" t="s">
         <v>1640</v>
-      </c>
-      <c r="D665" s="4" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E665" s="5" t="s">
-        <v>1642</v>
       </c>
       <c r="F665" s="5"/>
       <c r="G665" s="5" t="s">
@@ -23386,16 +23423,16 @@
         <v>665</v>
       </c>
       <c r="B666" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D666" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="C666" s="4" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D666" s="4" t="s">
-        <v>1645</v>
-      </c>
       <c r="E666" s="5" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F666" s="5"/>
       <c r="G666" s="5" t="s">
@@ -23411,16 +23448,16 @@
         <v>666</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E667" s="5" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="F667" s="5"/>
       <c r="G667" s="5" t="s">
@@ -23436,16 +23473,16 @@
         <v>667</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E668" s="5" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F668" s="5"/>
       <c r="G668" s="5" t="s">
@@ -23461,13 +23498,13 @@
         <v>668</v>
       </c>
       <c r="B669" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D669" s="4" t="s">
         <v>1651</v>
-      </c>
-      <c r="C669" s="4" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D669" s="4" t="s">
-        <v>1653</v>
       </c>
       <c r="E669" s="5" t="s">
         <v>532</v>
@@ -23486,13 +23523,13 @@
         <v>669</v>
       </c>
       <c r="B670" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D670" s="4" t="s">
         <v>1654</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D670" s="4" t="s">
-        <v>1656</v>
       </c>
       <c r="E670" s="5" t="s">
         <v>532</v>
@@ -23511,13 +23548,13 @@
         <v>670</v>
       </c>
       <c r="B671" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C671" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D671" s="4" t="s">
         <v>1657</v>
-      </c>
-      <c r="C671" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D671" s="4" t="s">
-        <v>1659</v>
       </c>
       <c r="E671" s="5" t="s">
         <v>532</v>
@@ -23536,13 +23573,13 @@
         <v>671</v>
       </c>
       <c r="B672" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C672" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D672" s="4" t="s">
         <v>1660</v>
-      </c>
-      <c r="C672" s="4" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D672" s="4" t="s">
-        <v>1662</v>
       </c>
       <c r="E672" s="5" t="s">
         <v>575</v>
@@ -23561,11 +23598,11 @@
         <v>672</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E673" s="5" t="s">
         <v>578</v>
@@ -23584,11 +23621,11 @@
         <v>673</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E674" s="5" t="s">
         <v>603</v>
@@ -23607,17 +23644,17 @@
         <v>674</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E675" s="5" t="s">
         <v>611</v>
       </c>
       <c r="F675" s="5" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="G675" s="5" t="s">
         <v>10</v>
@@ -23632,7 +23669,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4" t="s">
@@ -23655,11 +23692,11 @@
         <v>676</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E677" s="5" t="s">
         <v>647</v>
@@ -23678,7 +23715,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -23699,14 +23736,14 @@
         <v>678</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E679" s="5" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F679" s="5"/>
       <c r="G679" s="5" t="s">
@@ -23722,14 +23759,14 @@
         <v>679</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1677</v>
+        <v>2218</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E680" s="5" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="F680" s="5"/>
       <c r="G680" s="5" t="s">
@@ -23745,10 +23782,10 @@
         <v>680</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="D681" s="4" t="s">
         <v>170</v>
@@ -23770,16 +23807,16 @@
         <v>681</v>
       </c>
       <c r="B682" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C682" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E682" s="5" t="s">
         <v>1681</v>
-      </c>
-      <c r="C682" s="4" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D682" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E682" s="5" t="s">
-        <v>1684</v>
       </c>
       <c r="F682" s="5"/>
       <c r="G682" s="5" t="s">
@@ -23795,16 +23832,16 @@
         <v>682</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E683" s="5" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F683" s="5"/>
       <c r="G683" s="5" t="s">
@@ -23827,7 +23864,7 @@
         <v>509</v>
       </c>
       <c r="E684" s="5" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="F684" s="5"/>
       <c r="G684" s="5" t="s">
@@ -23843,17 +23880,17 @@
         <v>684</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E685" s="5" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="F685" s="5" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="G685" s="5" t="s">
         <v>15</v>
@@ -23868,14 +23905,14 @@
         <v>685</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E686" s="5" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="F686" s="5"/>
       <c r="G686" s="5" t="s">
@@ -23891,14 +23928,14 @@
         <v>686</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E687" s="5" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="F687" s="5"/>
       <c r="G687" s="5" t="s">
@@ -23914,14 +23951,14 @@
         <v>687</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E688" s="5" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="F688" s="5"/>
       <c r="G688" s="5" t="s">
@@ -23937,16 +23974,16 @@
         <v>688</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E689" s="5" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="F689" s="5"/>
       <c r="G689" s="5" t="s">
@@ -23962,14 +23999,14 @@
         <v>689</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C690" s="4"/>
       <c r="D690" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E690" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="F690" s="5"/>
       <c r="G690" s="5" t="s">
@@ -23985,18 +24022,18 @@
         <v>690</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C691" s="4"/>
       <c r="D691" s="4" t="s">
         <v>788</v>
       </c>
       <c r="E691" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F691" s="5"/>
       <c r="G691" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H691" s="6">
         <f t="shared" si="10"/>
@@ -24008,14 +24045,14 @@
         <v>691</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C692" s="4"/>
       <c r="D692" s="4" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E692" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F692" s="5"/>
       <c r="G692" s="5" t="s">
@@ -24031,16 +24068,16 @@
         <v>692</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E693" s="5" t="s">
-        <v>1706</v>
+        <v>2230</v>
       </c>
       <c r="F693" s="5"/>
       <c r="G693" s="5" t="s">
@@ -24048,7 +24085,7 @@
       </c>
       <c r="H693" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8" ht="16" customHeight="1">
@@ -24056,16 +24093,16 @@
         <v>693</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="E694" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F694" s="5"/>
       <c r="G694" s="5" t="s">
@@ -24081,16 +24118,16 @@
         <v>694</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1715</v>
+        <v>2234</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E695" s="5" t="s">
-        <v>1706</v>
+        <v>2235</v>
       </c>
       <c r="F695" s="5"/>
       <c r="G695" s="5" t="s">
@@ -24098,7 +24135,7 @@
       </c>
       <c r="H695" s="6">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8" ht="16" customHeight="1">
@@ -24106,16 +24143,16 @@
         <v>695</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F696" s="5"/>
       <c r="G696" s="5" t="s">
@@ -24131,19 +24168,19 @@
         <v>696</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F697" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="G697" s="5" t="s">
         <v>15</v>
@@ -24158,16 +24195,16 @@
         <v>697</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E698" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F698" s="5"/>
       <c r="G698" s="5" t="s">
@@ -24183,14 +24220,14 @@
         <v>698</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="C699" s="4"/>
       <c r="D699" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E699" s="5" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="F699" s="5"/>
       <c r="G699" s="5" t="s">
@@ -24206,16 +24243,16 @@
         <v>699</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="D700" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E700" s="5" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="F700" s="5"/>
       <c r="G700" s="5" t="s">
@@ -24231,14 +24268,14 @@
         <v>700</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="C701" s="4"/>
       <c r="D701" s="4" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E701" s="5" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="F701" s="5"/>
       <c r="G701" s="5" t="s">
@@ -24254,14 +24291,14 @@
         <v>701</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C702" s="4"/>
       <c r="D702" s="4" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E702" s="5" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="F702" s="5"/>
       <c r="G702" s="5" t="s">
@@ -24277,14 +24314,14 @@
         <v>702</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="C703" s="4"/>
       <c r="D703" s="4" t="s">
         <v>392</v>
       </c>
       <c r="E703" s="5" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="F703" s="5"/>
       <c r="G703" s="5" t="s">
@@ -24300,14 +24337,14 @@
         <v>703</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="C704" s="4"/>
       <c r="D704" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E704" s="5" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="F704" s="5"/>
       <c r="G704" s="5" t="s">
@@ -24323,14 +24360,14 @@
         <v>704</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C705" s="4"/>
       <c r="D705" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E705" s="5" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="F705" s="5"/>
       <c r="G705" s="5" t="s">
@@ -24346,14 +24383,14 @@
         <v>705</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E706" s="5" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="F706" s="5"/>
       <c r="G706" s="5" t="s">
@@ -24369,14 +24406,14 @@
         <v>706</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" s="4" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F707" s="5"/>
       <c r="G707" s="5" t="s">
@@ -24392,14 +24429,14 @@
         <v>707</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="C708" s="4"/>
       <c r="D708" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E708" s="5" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F708" s="5"/>
       <c r="G708" s="5" t="s">
@@ -24415,14 +24452,14 @@
         <v>708</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C709" s="4"/>
       <c r="D709" s="4" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E709" s="5" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="F709" s="5"/>
       <c r="G709" s="5" t="s">
@@ -24438,16 +24475,16 @@
         <v>709</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E710" s="5" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="F710" s="5"/>
       <c r="G710" s="5" t="s">
@@ -24463,14 +24500,14 @@
         <v>710</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" s="4" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E711" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F711" s="5"/>
       <c r="G711" s="5" t="s">
@@ -24486,14 +24523,14 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4" t="s">
         <v>535</v>
       </c>
       <c r="E712" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F712" s="5"/>
       <c r="G712" s="5" t="s">
@@ -24509,14 +24546,14 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C713" s="4"/>
       <c r="D713" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E713" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F713" s="5"/>
       <c r="G713" s="5" t="s">
@@ -24532,14 +24569,14 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C714" s="4"/>
       <c r="D714" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E714" s="5" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="F714" s="5"/>
       <c r="G714" s="5" t="s">
@@ -24555,14 +24592,14 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C715" s="4"/>
       <c r="D715" s="4" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F715" s="5"/>
       <c r="G715" s="5" t="s">
@@ -24578,14 +24615,14 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C716" s="4"/>
       <c r="D716" s="4" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E716" s="5" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="F716" s="5"/>
       <c r="G716" s="5" t="s">
@@ -24601,14 +24638,14 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="C717" s="4"/>
       <c r="D717" s="4" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E717" s="5" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F717" s="5"/>
       <c r="G717" s="5" t="s">
@@ -24624,14 +24661,14 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="C718" s="4"/>
       <c r="D718" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E718" s="5" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="F718" s="5"/>
       <c r="G718" s="5" t="s">
@@ -24647,14 +24684,14 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="C719" s="4"/>
       <c r="D719" s="4" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="F719" s="5"/>
       <c r="G719" s="5" t="s">
@@ -24670,14 +24707,14 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="C720" s="4"/>
       <c r="D720" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E720" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="F720" s="5"/>
       <c r="G720" s="5" t="s">
@@ -24693,14 +24730,14 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="C721" s="4"/>
       <c r="D721" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E721" s="5" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="F721" s="5"/>
       <c r="G721" s="5" t="s">
@@ -24716,14 +24753,14 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="C722" s="4"/>
       <c r="D722" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E722" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="F722" s="5"/>
       <c r="G722" s="5" t="s">
@@ -24739,14 +24776,14 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C723" s="4"/>
       <c r="D723" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E723" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="F723" s="5"/>
       <c r="G723" s="5" t="s">
@@ -24762,19 +24799,19 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="E724" s="5" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="F724" s="5" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="G724" s="5" t="s">
         <v>15</v>
@@ -24789,14 +24826,14 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="C725" s="4"/>
       <c r="D725" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E725" s="5" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="F725" s="5"/>
       <c r="G725" s="5" t="s">
@@ -24812,14 +24849,14 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C726" s="4"/>
       <c r="D726" s="4" t="s">
         <v>655</v>
       </c>
       <c r="E726" s="5" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="F726" s="5"/>
       <c r="G726" s="5" t="s">
@@ -24835,14 +24872,14 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="C727" s="4"/>
       <c r="D727" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E727" s="5" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="F727" s="5"/>
       <c r="G727" s="5" t="s">
@@ -24858,14 +24895,14 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="C728" s="4"/>
       <c r="D728" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E728" s="5" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="F728" s="5"/>
       <c r="G728" s="5" t="s">
@@ -24881,14 +24918,14 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="C729" s="4"/>
       <c r="D729" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E729" s="5" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="F729" s="5"/>
       <c r="G729" s="5" t="s">
@@ -24904,14 +24941,14 @@
         <v>729</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="C730" s="4"/>
       <c r="D730" s="4" t="s">
         <v>822</v>
       </c>
       <c r="E730" s="5" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="F730" s="5"/>
       <c r="G730" s="5" t="s">
@@ -24927,16 +24964,16 @@
         <v>730</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="D731" s="4" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="E731" s="5" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="F731" s="5"/>
       <c r="G731" s="5" t="s">
@@ -24952,14 +24989,14 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C732" s="4"/>
       <c r="D732" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E732" s="5" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="F732" s="5"/>
       <c r="G732" s="5" t="s">
@@ -24975,14 +25012,14 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C733" s="4"/>
       <c r="D733" s="4" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E733" s="5" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="F733" s="5"/>
       <c r="G733" s="5" t="s">
@@ -24998,14 +25035,14 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C734" s="4"/>
       <c r="D734" s="4" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="E734" s="5" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="F734" s="5"/>
       <c r="G734" s="5" t="s">
@@ -25021,14 +25058,14 @@
         <v>734</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C735" s="4"/>
       <c r="D735" s="4" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="E735" s="5" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="F735" s="5"/>
       <c r="G735" s="5" t="s">
@@ -25044,14 +25081,14 @@
         <v>735</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C736" s="4"/>
       <c r="D736" s="4" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="E736" s="5" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="F736" s="5"/>
       <c r="G736" s="5" t="s">
@@ -25067,14 +25104,14 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="C737" s="4"/>
       <c r="D737" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E737" s="5" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="F737" s="5"/>
       <c r="G737" s="5" t="s">
@@ -25090,17 +25127,17 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="C738" s="4"/>
       <c r="D738" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E738" s="5" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="F738" s="5" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="G738" s="5" t="s">
         <v>15</v>
@@ -25115,14 +25152,14 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="C739" s="4"/>
       <c r="D739" s="4" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F739" s="5"/>
       <c r="G739" s="5" t="s">
@@ -25138,14 +25175,14 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="C740" s="4"/>
       <c r="D740" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E740" s="5" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F740" s="5"/>
       <c r="G740" s="5" t="s">
@@ -25161,14 +25198,14 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="C741" s="4"/>
       <c r="D741" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E741" s="5" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="F741" s="5"/>
       <c r="G741" s="5" t="s">
@@ -25184,17 +25221,17 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C742" s="4"/>
       <c r="D742" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E742" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F742" s="5" t="s">
         <v>1807</v>
-      </c>
-      <c r="F742" s="5" t="s">
-        <v>1811</v>
       </c>
       <c r="G742" s="5" t="s">
         <v>15</v>
@@ -25209,14 +25246,14 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C743" s="4"/>
       <c r="D743" s="4" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="E743" s="5" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="F743" s="5"/>
       <c r="G743" s="5" t="s">
@@ -25232,14 +25269,14 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C744" s="4"/>
       <c r="D744" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E744" s="5" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="F744" s="5"/>
       <c r="G744" s="5" t="s">
@@ -25255,14 +25292,14 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C745" s="4"/>
       <c r="D745" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E745" s="5" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="F745" s="5"/>
       <c r="G745" s="5" t="s">
@@ -25278,16 +25315,16 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="D746" s="4" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="E746" s="5" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="F746" s="5"/>
       <c r="G746" s="5" t="s">
@@ -25303,14 +25340,14 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C747" s="4"/>
       <c r="D747" s="4" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="E747" s="5" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="F747" s="5"/>
       <c r="G747" s="5" t="s">
@@ -25326,14 +25363,14 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C748" s="4"/>
       <c r="D748" s="4" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="E748" s="5" t="s">
-        <v>1825</v>
+        <v>2219</v>
       </c>
       <c r="F748" s="5"/>
       <c r="G748" s="5" t="s">
@@ -25341,7 +25378,7 @@
       </c>
       <c r="H748" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8" ht="16" customHeight="1">
@@ -25349,14 +25386,14 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C749" s="4"/>
       <c r="D749" s="4" t="s">
         <v>568</v>
       </c>
       <c r="E749" s="5" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F749" s="5"/>
       <c r="G749" s="5" t="s">
@@ -25372,16 +25409,16 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="D750" s="4" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="E750" s="5" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="F750" s="5"/>
       <c r="G750" s="5" t="s">
@@ -25397,17 +25434,17 @@
         <v>750</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C751" s="4"/>
       <c r="D751" s="4" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="E751" s="5" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F751" s="5" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="G751" s="5" t="s">
         <v>15</v>
@@ -25422,14 +25459,14 @@
         <v>751</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="C752" s="4"/>
       <c r="D752" s="4" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="E752" s="5" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="F752" s="5"/>
       <c r="G752" s="5" t="s">
@@ -25445,14 +25482,14 @@
         <v>752</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C753" s="4"/>
       <c r="D753" s="4" t="s">
         <v>731</v>
       </c>
       <c r="E753" s="5" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F753" s="5"/>
       <c r="G753" s="5" t="s">
@@ -25468,14 +25505,14 @@
         <v>753</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="C754" s="4"/>
       <c r="D754" s="4" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="E754" s="5" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F754" s="5"/>
       <c r="G754" s="5" t="s">
@@ -25491,14 +25528,14 @@
         <v>754</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C755" s="4"/>
       <c r="D755" s="4" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="E755" s="5" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="F755" s="5"/>
       <c r="G755" s="5" t="s">
@@ -25514,14 +25551,14 @@
         <v>755</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C756" s="4"/>
       <c r="D756" s="4" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="E756" s="5" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F756" s="5"/>
       <c r="G756" s="5" t="s">
@@ -25537,14 +25574,14 @@
         <v>756</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C757" s="4"/>
       <c r="D757" s="4" t="s">
         <v>535</v>
       </c>
       <c r="E757" s="5" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F757" s="5"/>
       <c r="G757" s="5" t="s">
@@ -25560,14 +25597,14 @@
         <v>757</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C758" s="4"/>
       <c r="D758" s="4" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="E758" s="5" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F758" s="5"/>
       <c r="G758" s="5" t="s">
@@ -25583,14 +25620,14 @@
         <v>758</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C759" s="4"/>
       <c r="D759" s="4" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="E759" s="5" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F759" s="5"/>
       <c r="G759" s="5" t="s">
@@ -25606,17 +25643,17 @@
         <v>759</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C760" s="4"/>
       <c r="D760" s="4" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="E760" s="5" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F760" s="5" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="G760" s="5" t="s">
         <v>10</v>
@@ -25631,14 +25668,14 @@
         <v>760</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C761" s="4"/>
       <c r="D761" s="4" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="E761" s="5" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="F761" s="5"/>
       <c r="G761" s="5" t="s">
@@ -25654,14 +25691,14 @@
         <v>761</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C762" s="4"/>
       <c r="D762" s="4" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="E762" s="5" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="F762" s="5"/>
       <c r="G762" s="5" t="s">
@@ -25677,14 +25714,14 @@
         <v>762</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C763" s="4"/>
       <c r="D763" s="4" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="E763" s="5" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="F763" s="5"/>
       <c r="G763" s="5" t="s">
@@ -25700,14 +25737,14 @@
         <v>763</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C764" s="4"/>
       <c r="D764" s="4" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E764" s="5" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="F764" s="5"/>
       <c r="G764" s="5" t="s">
@@ -25723,17 +25760,17 @@
         <v>764</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="C765" s="4"/>
       <c r="D765" s="4" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="E765" s="5" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F765" s="5" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="G765" s="5" t="s">
         <v>15</v>
@@ -25748,14 +25785,14 @@
         <v>765</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C766" s="4"/>
       <c r="D766" s="4" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="E766" s="5" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F766" s="5"/>
       <c r="G766" s="5" t="s">
@@ -25771,14 +25808,14 @@
         <v>766</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C767" s="4"/>
       <c r="D767" s="4" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E767" s="5" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="F767" s="5"/>
       <c r="G767" s="5" t="s">
@@ -25794,16 +25831,16 @@
         <v>767</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="D768" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E768" s="5" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="F768" s="5"/>
       <c r="G768" s="5" t="s">
@@ -25819,14 +25856,14 @@
         <v>768</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="C769" s="4"/>
       <c r="D769" s="4" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="E769" s="5" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="F769" s="5"/>
       <c r="G769" s="5" t="s">
@@ -25842,21 +25879,21 @@
         <v>769</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="C770" s="4"/>
       <c r="D770" s="4" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="E770" s="5" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="F770" s="5"/>
       <c r="G770" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H770" s="6">
-        <f t="shared" ref="H770:H846" si="12">LEN(E770)-LEN(SUBSTITUTE(E770,"，",""))+1</f>
+        <f t="shared" ref="H770:H851" si="12">LEN(E770)-LEN(SUBSTITUTE(E770,"，",""))+1</f>
         <v>3</v>
       </c>
     </row>
@@ -25865,14 +25902,14 @@
         <v>770</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="C771" s="4"/>
       <c r="D771" s="4" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="E771" s="5" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="F771" s="5"/>
       <c r="G771" s="5" t="s">
@@ -25888,16 +25925,16 @@
         <v>771</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="D772" s="4" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="E772" s="5" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="F772" s="5"/>
       <c r="G772" s="5" t="s">
@@ -25913,14 +25950,14 @@
         <v>772</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="C773" s="4"/>
       <c r="D773" s="4" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="E773" s="5" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="F773" s="5"/>
       <c r="G773" s="5" t="s">
@@ -25936,14 +25973,14 @@
         <v>773</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="C774" s="4"/>
       <c r="D774" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E774" s="5" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F774" s="5"/>
       <c r="G774" s="5" t="s">
@@ -25959,19 +25996,19 @@
         <v>774</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="D775" s="4" t="s">
         <v>669</v>
       </c>
       <c r="E775" s="5" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="F775" s="5" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="G775" s="5" t="s">
         <v>15</v>
@@ -25986,14 +26023,14 @@
         <v>775</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="C776" s="4"/>
       <c r="D776" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E776" s="5" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="F776" s="5"/>
       <c r="G776" s="5" t="s">
@@ -26009,14 +26046,14 @@
         <v>776</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="C777" s="4"/>
       <c r="D777" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E777" s="5" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F777" s="5"/>
       <c r="G777" s="5" t="s">
@@ -26032,14 +26069,14 @@
         <v>777</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="C778" s="4"/>
       <c r="D778" s="4" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="E778" s="5" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F778" s="5"/>
       <c r="G778" s="5" t="s">
@@ -26055,16 +26092,16 @@
         <v>778</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="D779" s="4" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="E779" s="5" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F779" s="5"/>
       <c r="G779" s="5" t="s">
@@ -26083,13 +26120,13 @@
         <v>619</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D780" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E780" s="5" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="F780" s="5"/>
       <c r="G780" s="5" t="s">
@@ -26105,14 +26142,14 @@
         <v>780</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="C781" s="4"/>
       <c r="D781" s="4" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="E781" s="5" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="F781" s="5"/>
       <c r="G781" s="5" t="s">
@@ -26128,14 +26165,14 @@
         <v>781</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C782" s="4"/>
       <c r="D782" s="4" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="E782" s="5" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="F782" s="5"/>
       <c r="G782" s="5" t="s">
@@ -26151,14 +26188,14 @@
         <v>782</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="C783" s="4"/>
       <c r="D783" s="4" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E783" s="5" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="F783" s="5"/>
       <c r="G783" s="5" t="s">
@@ -26174,14 +26211,14 @@
         <v>783</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="C784" s="4"/>
       <c r="D784" s="4" t="s">
         <v>736</v>
       </c>
       <c r="E784" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="F784" s="5"/>
       <c r="G784" s="5" t="s">
@@ -26197,14 +26234,14 @@
         <v>784</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C785" s="4"/>
       <c r="D785" s="4" t="s">
         <v>971</v>
       </c>
       <c r="E785" s="5" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="F785" s="5"/>
       <c r="G785" s="5" t="s">
@@ -26220,14 +26257,14 @@
         <v>785</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="C786" s="4"/>
       <c r="D786" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E786" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="F786" s="5"/>
       <c r="G786" s="5" t="s">
@@ -26243,14 +26280,14 @@
         <v>786</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C787" s="4"/>
       <c r="D787" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E787" s="5" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="F787" s="5"/>
       <c r="G787" s="5" t="s">
@@ -26266,14 +26303,14 @@
         <v>787</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C788" s="4"/>
       <c r="D788" s="4" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E788" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="F788" s="5"/>
       <c r="G788" s="5" t="s">
@@ -26289,14 +26326,14 @@
         <v>788</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="C789" s="4"/>
       <c r="D789" s="4" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="E789" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="F789" s="5"/>
       <c r="G789" s="5" t="s">
@@ -26312,14 +26349,14 @@
         <v>789</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C790" s="4"/>
       <c r="D790" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E790" s="5" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="F790" s="5"/>
       <c r="G790" s="5" t="s">
@@ -26335,14 +26372,14 @@
         <v>790</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="C791" s="4"/>
       <c r="D791" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E791" s="5" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="F791" s="5"/>
       <c r="G791" s="5" t="s">
@@ -26358,14 +26395,14 @@
         <v>791</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="C792" s="4"/>
       <c r="D792" s="4" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="E792" s="5" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="F792" s="5"/>
       <c r="G792" s="5" t="s">
@@ -26381,14 +26418,14 @@
         <v>792</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="C793" s="4"/>
       <c r="D793" s="4" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="E793" s="5" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F793" s="5"/>
       <c r="G793" s="5" t="s">
@@ -26404,16 +26441,16 @@
         <v>793</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="D794" s="4" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="E794" s="5" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F794" s="5"/>
       <c r="G794" s="5" t="s">
@@ -26429,14 +26466,14 @@
         <v>794</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="C795" s="4"/>
       <c r="D795" s="4" t="s">
         <v>515</v>
       </c>
       <c r="E795" s="5" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F795" s="5"/>
       <c r="G795" s="5" t="s">
@@ -26452,14 +26489,14 @@
         <v>795</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="C796" s="4"/>
       <c r="D796" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E796" s="5" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="F796" s="5"/>
       <c r="G796" s="5" t="s">
@@ -26475,14 +26512,14 @@
         <v>796</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="C797" s="4"/>
       <c r="D797" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E797" s="5" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="F797" s="5"/>
       <c r="G797" s="5" t="s">
@@ -26498,16 +26535,16 @@
         <v>797</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="D798" s="4" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="E798" s="5" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="F798" s="5"/>
       <c r="G798" s="5" t="s">
@@ -26523,18 +26560,18 @@
         <v>798</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="C799" s="4"/>
       <c r="D799" s="4" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="E799" s="5" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="F799" s="5"/>
       <c r="G799" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H799" s="6">
         <f t="shared" si="12"/>
@@ -26546,14 +26583,14 @@
         <v>799</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="C800" s="4"/>
       <c r="D800" s="4" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="E800" s="5" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="F800" s="5"/>
       <c r="G800" s="5" t="s">
@@ -26569,16 +26606,16 @@
         <v>800</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="D801" s="4" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="E801" s="5" t="s">
-        <v>1947</v>
+        <v>2220</v>
       </c>
       <c r="F801" s="5"/>
       <c r="G801" s="5" t="s">
@@ -26586,7 +26623,7 @@
       </c>
       <c r="H801" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8" ht="16" customHeight="1">
@@ -26594,16 +26631,16 @@
         <v>801</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="D802" s="4" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="E802" s="5" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="F802" s="5"/>
       <c r="G802" s="5" t="s">
@@ -26619,17 +26656,17 @@
         <v>802</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="C803" s="4"/>
       <c r="D803" s="4" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="E803" s="5" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="F803" s="5" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="G803" s="5" t="s">
         <v>34</v>
@@ -26644,14 +26681,14 @@
         <v>803</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="C804" s="4"/>
       <c r="D804" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E804" s="5" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="F804" s="5"/>
       <c r="G804" s="5" t="s">
@@ -26667,14 +26704,14 @@
         <v>804</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="C805" s="4"/>
       <c r="D805" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E805" s="5" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="F805" s="5"/>
       <c r="G805" s="5" t="s">
@@ -26690,14 +26727,14 @@
         <v>805</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="C806" s="4"/>
       <c r="D806" s="4" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="E806" s="5" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="F806" s="5"/>
       <c r="G806" s="5" t="s">
@@ -26713,16 +26750,16 @@
         <v>806</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="D807" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E807" s="5" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="F807" s="5"/>
       <c r="G807" s="5" t="s">
@@ -26738,18 +26775,18 @@
         <v>807</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C808" s="4"/>
       <c r="D808" s="4" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="E808" s="5" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F808" s="5"/>
       <c r="G808" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H808" s="6">
         <f t="shared" si="12"/>
@@ -26761,18 +26798,18 @@
         <v>808</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="C809" s="4"/>
       <c r="D809" s="4" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="E809" s="5" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="F809" s="5"/>
       <c r="G809" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H809" s="6">
         <f t="shared" si="12"/>
@@ -26784,18 +26821,18 @@
         <v>809</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C810" s="4"/>
       <c r="D810" s="4" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E810" s="5" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="F810" s="5"/>
       <c r="G810" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H810" s="6">
         <f t="shared" si="12"/>
@@ -26807,18 +26844,18 @@
         <v>810</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C811" s="4"/>
       <c r="D811" s="4" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E811" s="5" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="F811" s="5"/>
       <c r="G811" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H811" s="6">
         <f t="shared" si="12"/>
@@ -26830,18 +26867,18 @@
         <v>811</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C812" s="4"/>
       <c r="D812" s="4" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E812" s="5" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="F812" s="5"/>
       <c r="G812" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H812" s="6">
         <f t="shared" si="12"/>
@@ -26853,18 +26890,18 @@
         <v>812</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C813" s="4"/>
       <c r="D813" s="4" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E813" s="5" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F813" s="5"/>
       <c r="G813" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H813" s="6">
         <f t="shared" si="12"/>
@@ -26876,18 +26913,18 @@
         <v>813</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C814" s="4"/>
       <c r="D814" s="4" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E814" s="5" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F814" s="5"/>
       <c r="G814" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H814" s="6">
         <f t="shared" si="12"/>
@@ -26899,18 +26936,18 @@
         <v>814</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C815" s="4"/>
       <c r="D815" s="4" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="E815" s="5" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="F815" s="5"/>
       <c r="G815" s="5" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="H815" s="6">
         <f t="shared" si="12"/>
@@ -26922,18 +26959,18 @@
         <v>815</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="C816" s="4"/>
       <c r="D816" s="4" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="E816" s="5" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="F816" s="5"/>
       <c r="G816" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H816" s="6">
         <f t="shared" si="12"/>
@@ -26945,18 +26982,18 @@
         <v>816</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C817" s="4"/>
       <c r="D817" s="4" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="E817" s="5" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="F817" s="5"/>
       <c r="G817" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H817" s="6">
         <f t="shared" si="12"/>
@@ -26968,18 +27005,18 @@
         <v>817</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C818" s="4"/>
       <c r="D818" s="4" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="E818" s="5" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="F818" s="5"/>
       <c r="G818" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H818" s="6">
         <f t="shared" si="12"/>
@@ -26991,18 +27028,18 @@
         <v>818</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="C819" s="4"/>
       <c r="D819" s="4" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="E819" s="5" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="F819" s="5"/>
       <c r="G819" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H819" s="6">
         <f t="shared" si="12"/>
@@ -27014,18 +27051,18 @@
         <v>819</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="C820" s="4"/>
       <c r="D820" s="4" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="E820" s="5" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="F820" s="5"/>
       <c r="G820" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H820" s="6">
         <f t="shared" si="12"/>
@@ -27037,18 +27074,18 @@
         <v>820</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="C821" s="4"/>
       <c r="D821" s="4" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="E821" s="5" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="F821" s="5"/>
       <c r="G821" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H821" s="6">
         <f t="shared" si="12"/>
@@ -27060,18 +27097,18 @@
         <v>821</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="C822" s="4"/>
       <c r="D822" s="4" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="E822" s="5" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="F822" s="5"/>
       <c r="G822" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H822" s="6">
         <f t="shared" si="12"/>
@@ -27083,18 +27120,18 @@
         <v>822</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="C823" s="4"/>
       <c r="D823" s="4" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="E823" s="5" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="F823" s="5"/>
       <c r="G823" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H823" s="6">
         <f t="shared" si="12"/>
@@ -27106,18 +27143,18 @@
         <v>823</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="C824" s="4"/>
       <c r="D824" s="4" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="E824" s="5" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="F824" s="5"/>
       <c r="G824" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H824" s="6">
         <f t="shared" si="12"/>
@@ -27129,18 +27166,18 @@
         <v>824</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="C825" s="4"/>
       <c r="D825" s="4" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E825" s="5" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="F825" s="5"/>
       <c r="G825" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H825" s="6">
         <f t="shared" si="12"/>
@@ -27152,18 +27189,18 @@
         <v>825</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="C826" s="4"/>
       <c r="D826" s="4" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="E826" s="5" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="F826" s="5"/>
       <c r="G826" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H826" s="6">
         <f t="shared" si="12"/>
@@ -27175,18 +27212,18 @@
         <v>826</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="C827" s="4"/>
       <c r="D827" s="4" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="E827" s="5" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="F827" s="5"/>
       <c r="G827" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H827" s="6">
         <f t="shared" si="12"/>
@@ -27198,18 +27235,18 @@
         <v>827</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C828" s="4"/>
       <c r="D828" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="E828" s="5" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="F828" s="5"/>
       <c r="G828" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H828" s="6">
         <f t="shared" si="12"/>
@@ -27221,18 +27258,18 @@
         <v>828</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="C829" s="4"/>
       <c r="D829" s="4" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E829" s="5" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="F829" s="5"/>
       <c r="G829" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H829" s="6">
         <f t="shared" si="12"/>
@@ -27244,18 +27281,18 @@
         <v>829</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="C830" s="4"/>
       <c r="D830" s="4" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="E830" s="5" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="F830" s="5"/>
       <c r="G830" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H830" s="6">
         <f t="shared" si="12"/>
@@ -27267,20 +27304,20 @@
         <v>830</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="D831" s="4" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="E831" s="5" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="F831" s="5"/>
       <c r="G831" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H831" s="6">
         <f t="shared" si="12"/>
@@ -27292,18 +27329,18 @@
         <v>831</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="C832" s="4"/>
       <c r="D832" s="4" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="E832" s="5" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="F832" s="5"/>
       <c r="G832" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H832" s="6">
         <f t="shared" si="12"/>
@@ -27315,20 +27352,20 @@
         <v>832</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="D833" s="4" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="E833" s="5" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="F833" s="5"/>
       <c r="G833" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H833" s="6">
         <f t="shared" si="12"/>
@@ -27340,18 +27377,18 @@
         <v>833</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="C834" s="4"/>
       <c r="D834" s="4" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="E834" s="5" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="F834" s="5"/>
       <c r="G834" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H834" s="6">
         <f t="shared" si="12"/>
@@ -27363,18 +27400,18 @@
         <v>834</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="C835" s="4"/>
       <c r="D835" s="4" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="E835" s="5" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="F835" s="5"/>
       <c r="G835" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H835" s="6">
         <f t="shared" si="12"/>
@@ -27386,18 +27423,18 @@
         <v>835</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="C836" s="4"/>
       <c r="D836" s="4" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="E836" s="5" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="F836" s="5"/>
       <c r="G836" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H836" s="6">
         <f t="shared" si="12"/>
@@ -27409,18 +27446,18 @@
         <v>836</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="C837" s="4"/>
       <c r="D837" s="4" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="E837" s="5" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="F837" s="5"/>
       <c r="G837" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H837" s="6">
         <f t="shared" si="12"/>
@@ -27432,18 +27469,18 @@
         <v>837</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="C838" s="4"/>
       <c r="D838" s="4" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="E838" s="5" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="F838" s="5"/>
       <c r="G838" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H838" s="6">
         <f t="shared" si="12"/>
@@ -27455,18 +27492,18 @@
         <v>838</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="C839" s="4"/>
       <c r="D839" s="4" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="E839" s="5" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="F839" s="5"/>
       <c r="G839" s="5" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="H839" s="6">
         <f t="shared" si="12"/>
@@ -27478,18 +27515,18 @@
         <v>839</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="C840" s="4"/>
       <c r="D840" s="4" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="E840" s="5" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="F840" s="5"/>
       <c r="G840" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H840" s="6">
         <f t="shared" si="12"/>
@@ -27501,18 +27538,18 @@
         <v>840</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="C841" s="4"/>
       <c r="D841" s="4" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="E841" s="5" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="F841" s="5"/>
       <c r="G841" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H841" s="6">
         <f t="shared" si="12"/>
@@ -27524,18 +27561,18 @@
         <v>841</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="C842" s="4"/>
       <c r="D842" s="4" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="E842" s="5" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="F842" s="5"/>
       <c r="G842" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H842" s="6">
         <f t="shared" si="12"/>
@@ -27547,18 +27584,18 @@
         <v>842</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="C843" s="4"/>
       <c r="D843" s="4" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="E843" s="5" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="F843" s="5"/>
       <c r="G843" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H843" s="6">
         <f t="shared" si="12"/>
@@ -27570,18 +27607,18 @@
         <v>843</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="C844" s="4"/>
       <c r="D844" s="4" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E844" s="5" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="F844" s="5"/>
       <c r="G844" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H844" s="6">
         <f t="shared" si="12"/>
@@ -27593,18 +27630,18 @@
         <v>844</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="C845" s="4"/>
       <c r="D845" s="4" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="E845" s="5" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="F845" s="5"/>
       <c r="G845" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H845" s="6">
         <f t="shared" si="12"/>
@@ -27616,18 +27653,18 @@
         <v>845</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="C846" s="4"/>
       <c r="D846" s="4" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="E846" s="5" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="F846" s="5"/>
       <c r="G846" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H846" s="6">
         <f t="shared" si="12"/>
@@ -27639,21 +27676,21 @@
         <v>846</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C847" s="4"/>
       <c r="D847" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E847" s="5" t="s">
         <v>2225</v>
-      </c>
-      <c r="E847" s="5" t="s">
-        <v>2226</v>
       </c>
       <c r="F847" s="5"/>
       <c r="G847" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H847" s="6">
-        <f t="shared" ref="H847:H849" si="13">LEN(E847)-LEN(SUBSTITUTE(E847,"，",""))+1</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -27662,21 +27699,21 @@
         <v>847</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C848" s="4"/>
       <c r="D848" s="4" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="E848" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F848" s="5"/>
       <c r="G848" s="5" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="H848" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -27685,21 +27722,21 @@
         <v>848</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C849" s="4"/>
       <c r="D849" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E849" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="F849" s="5"/>
       <c r="G849" s="5" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="H849" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -27707,25 +27744,47 @@
       <c r="A850" s="15">
         <v>849</v>
       </c>
-      <c r="B850" s="4"/>
+      <c r="B850" s="4" t="s">
+        <v>2231</v>
+      </c>
       <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="5"/>
+      <c r="D850" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>2233</v>
+      </c>
       <c r="F850" s="5"/>
-      <c r="G850" s="5"/>
-      <c r="H850" s="6"/>
+      <c r="G850" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H850" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="851" spans="1:8" ht="16" customHeight="1">
       <c r="A851" s="15">
         <v>850</v>
       </c>
-      <c r="B851" s="4"/>
+      <c r="B851" s="4" t="s">
+        <v>2237</v>
+      </c>
       <c r="C851" s="4"/>
-      <c r="D851" s="4"/>
-      <c r="E851" s="5"/>
+      <c r="D851" s="4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>2233</v>
+      </c>
       <c r="F851" s="5"/>
-      <c r="G851" s="5"/>
-      <c r="H851" s="6"/>
+      <c r="G851" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H851" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="852" spans="1:8" ht="16" customHeight="1">
       <c r="A852" s="15">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4C985F-D34F-BD4B-8390-CE27A6E219BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F803F77-FACF-D34D-B81A-A7407BC028C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9225,9 +9225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20144,7 +20144,7 @@
         <v>957</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>10</v>
+        <v>1873</v>
       </c>
       <c r="H418" s="14">
         <f t="shared" si="6"/>
@@ -20834,7 +20834,7 @@
       </c>
       <c r="F446" s="4"/>
       <c r="G446" s="4" t="s">
-        <v>10</v>
+        <v>1873</v>
       </c>
       <c r="H446" s="14">
         <f t="shared" si="6"/>
@@ -20928,7 +20928,7 @@
       </c>
       <c r="F450" s="4"/>
       <c r="G450" s="4" t="s">
-        <v>10</v>
+        <v>1873</v>
       </c>
       <c r="H450" s="14">
         <f t="shared" ref="H450:H513" si="7">LEN(E450)-LEN(SUBSTITUTE(E450,"，",""))+1</f>

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinschomburg/Documents/GitHub/sui/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B98DE7-00C8-5344-9C11-87BF73FC9160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C773C9A-ACAB-4F4C-8637-938ADB7062A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$875</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="2853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="2857">
   <si>
     <t>序号</t>
   </si>
@@ -6102,10 +6101,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2023/7/25，2024/2/5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>林二汶</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -9189,10 +9184,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BV1Y7421N7SC</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>梅雨明けの</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -9861,6 +9852,30 @@
   </si>
   <si>
     <t>BV1bW4y137dn，BV1nD4y1H7WS，BV1uj421R7CF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/7/25，2024/2/5，2024/3/27</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BV1Y7421N7SC，BV17M4m1R74W</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月灯りふんわり落ちてくる夜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光轻轻飘落的夜晚</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>小川七生</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/3/28</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -10395,9 +10410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A841" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G861" sqref="G861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10437,7 +10452,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" customHeight="1">
@@ -10463,7 +10478,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1">
@@ -10471,7 +10486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
@@ -10491,7 +10506,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1">
@@ -10499,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -10521,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32" customHeight="1">
@@ -10547,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1">
@@ -10555,7 +10570,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -10564,7 +10579,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -10575,7 +10590,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" customHeight="1">
@@ -10583,7 +10598,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -10603,7 +10618,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32" customHeight="1">
@@ -10629,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1">
@@ -10637,7 +10652,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -10655,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1">
@@ -10663,7 +10678,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -10681,7 +10696,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32" customHeight="1">
@@ -10707,7 +10722,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.75" customHeight="1">
@@ -10715,7 +10730,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>34</v>
@@ -10737,7 +10752,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1">
@@ -10763,7 +10778,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1">
@@ -10789,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32" customHeight="1">
@@ -10797,7 +10812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -10817,7 +10832,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="47" customHeight="1">
@@ -10832,7 +10847,7 @@
         <v>1659</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -10843,7 +10858,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32" customHeight="1">
@@ -10851,7 +10866,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
@@ -10860,7 +10875,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>49</v>
@@ -10873,7 +10888,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" customHeight="1">
@@ -10881,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
@@ -10901,7 +10916,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" customHeight="1">
@@ -10927,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
@@ -10935,7 +10950,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
@@ -10955,7 +10970,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1">
@@ -10981,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="32" customHeight="1">
@@ -10989,14 +11004,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
@@ -11007,7 +11022,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1">
@@ -11033,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1">
@@ -11041,7 +11056,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
@@ -11063,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="32" customHeight="1">
@@ -11091,7 +11106,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1">
@@ -11117,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1">
@@ -11125,7 +11140,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -11143,7 +11158,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="32" customHeight="1">
@@ -11151,14 +11166,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
@@ -11169,7 +11184,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="32" customHeight="1">
@@ -11195,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1">
@@ -11210,7 +11225,7 @@
         <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>878</v>
@@ -11223,7 +11238,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="32" customHeight="1">
@@ -11249,7 +11264,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1">
@@ -11257,7 +11272,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>80</v>
@@ -11279,7 +11294,7 @@
         <v>11</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32" customHeight="1">
@@ -11294,7 +11309,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
@@ -11305,7 +11320,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="32" customHeight="1">
@@ -11331,7 +11346,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16" customHeight="1">
@@ -11357,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32" customHeight="1">
@@ -11374,7 +11389,7 @@
         <v>90</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>91</v>
@@ -11387,7 +11402,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="32" customHeight="1">
@@ -11415,7 +11430,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16" customHeight="1">
@@ -11441,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16" customHeight="1">
@@ -11465,7 +11480,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="32" customHeight="1">
@@ -11473,7 +11488,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
@@ -11497,7 +11512,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
@@ -11521,7 +11536,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -11539,7 +11554,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16" customHeight="1">
@@ -11565,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16" customHeight="1">
@@ -11645,7 +11660,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>108</v>
@@ -11695,7 +11710,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>113</v>
@@ -11715,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16" customHeight="1">
@@ -11723,7 +11738,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -11765,7 +11780,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16" customHeight="1">
@@ -11797,7 +11812,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>121</v>
@@ -11819,7 +11834,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16" customHeight="1">
@@ -11845,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16" customHeight="1">
@@ -11871,7 +11886,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16" customHeight="1">
@@ -11897,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="32" customHeight="1">
@@ -11905,7 +11920,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>131</v>
@@ -11927,7 +11942,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16" customHeight="1">
@@ -11935,7 +11950,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>135</v>
@@ -12009,7 +12024,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16" customHeight="1">
@@ -12061,7 +12076,7 @@
         <v>4</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16" customHeight="1">
@@ -12069,7 +12084,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>152</v>
@@ -12095,7 +12110,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>154</v>
@@ -12104,7 +12119,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
@@ -12139,7 +12154,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16" customHeight="1">
@@ -12147,7 +12162,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>156</v>
@@ -12204,7 +12219,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
@@ -12215,7 +12230,7 @@
         <v>5</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="33" customHeight="1">
@@ -12230,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
@@ -12241,7 +12256,7 @@
         <v>6</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="47" customHeight="1">
@@ -12256,7 +12271,7 @@
         <v>164</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
@@ -12267,7 +12282,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="31" customHeight="1">
@@ -12293,7 +12308,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16" customHeight="1">
@@ -12345,7 +12360,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16" customHeight="1">
@@ -12353,7 +12368,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
@@ -12373,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16" customHeight="1">
@@ -12381,7 +12396,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
@@ -12399,7 +12414,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16" customHeight="1">
@@ -12425,7 +12440,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16" customHeight="1">
@@ -12457,7 +12472,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>181</v>
@@ -12501,7 +12516,7 @@
         <v>6</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="32" customHeight="1">
@@ -12527,7 +12542,7 @@
         <v>5</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16" customHeight="1">
@@ -12559,14 +12574,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
@@ -12577,7 +12592,7 @@
         <v>6</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="32" customHeight="1">
@@ -12603,7 +12618,7 @@
         <v>6</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="32" customHeight="1">
@@ -12618,7 +12633,7 @@
         <v>192</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
@@ -12629,7 +12644,7 @@
         <v>7</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16" customHeight="1">
@@ -12655,7 +12670,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16" customHeight="1">
@@ -12681,7 +12696,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16" customHeight="1">
@@ -12731,7 +12746,7 @@
         <v>5</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16" customHeight="1">
@@ -12757,7 +12772,7 @@
         <v>4</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16" customHeight="1">
@@ -12783,7 +12798,7 @@
         <v>4</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16" customHeight="1">
@@ -12813,7 +12828,7 @@
         <v>4</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="32" customHeight="1">
@@ -12839,7 +12854,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16" customHeight="1">
@@ -12865,7 +12880,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16" customHeight="1">
@@ -12873,7 +12888,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
@@ -12891,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16" customHeight="1">
@@ -12917,7 +12932,7 @@
         <v>3</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16" customHeight="1">
@@ -12943,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16" customHeight="1">
@@ -12951,7 +12966,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
@@ -12969,7 +12984,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16" customHeight="1">
@@ -13019,7 +13034,7 @@
         <v>4</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16" customHeight="1">
@@ -13034,7 +13049,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
@@ -13045,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="32" customHeight="1">
@@ -13071,7 +13086,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="44" customHeight="1">
@@ -13086,7 +13101,7 @@
         <v>166</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
@@ -13097,7 +13112,7 @@
         <v>9</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="32" customHeight="1">
@@ -13123,7 +13138,7 @@
         <v>6</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="32" customHeight="1">
@@ -13149,7 +13164,7 @@
         <v>6</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="32" customHeight="1">
@@ -13177,7 +13192,7 @@
         <v>5</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16" customHeight="1">
@@ -13185,14 +13200,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>240</v>
@@ -13205,7 +13220,7 @@
         <v>4</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16" customHeight="1">
@@ -13233,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16" customHeight="1">
@@ -13241,7 +13256,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>244</v>
@@ -13263,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="31" customHeight="1">
@@ -13271,7 +13286,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>247</v>
@@ -13291,7 +13306,7 @@
         <v>7</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16" customHeight="1">
@@ -13306,7 +13321,7 @@
         <v>129</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4" t="s">
@@ -13317,7 +13332,7 @@
         <v>3</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="32" customHeight="1">
@@ -13325,14 +13340,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
         <v>250</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4" t="s">
@@ -13343,7 +13358,7 @@
         <v>6</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16" customHeight="1">
@@ -13351,7 +13366,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
@@ -13369,7 +13384,7 @@
         <v>3</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16" customHeight="1">
@@ -13395,7 +13410,7 @@
         <v>4</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16" customHeight="1">
@@ -13421,7 +13436,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16" customHeight="1">
@@ -13447,7 +13462,7 @@
         <v>3</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16" customHeight="1">
@@ -13455,7 +13470,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>261</v>
@@ -13475,7 +13490,7 @@
         <v>3</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="32" customHeight="1">
@@ -13483,7 +13498,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
@@ -13503,7 +13518,7 @@
         <v>5</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16" customHeight="1">
@@ -13511,7 +13526,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
@@ -13531,7 +13546,7 @@
         <v>3</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="32" customHeight="1">
@@ -13559,7 +13574,7 @@
         <v>6</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="32" customHeight="1">
@@ -13585,7 +13600,7 @@
         <v>8</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16" customHeight="1">
@@ -13613,7 +13628,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16" customHeight="1">
@@ -13621,7 +13636,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>275</v>
@@ -13643,7 +13658,7 @@
         <v>4</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16" customHeight="1">
@@ -13669,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16" customHeight="1">
@@ -13695,7 +13710,7 @@
         <v>3</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16" customHeight="1">
@@ -13703,7 +13718,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>285</v>
@@ -13715,7 +13730,7 @@
         <v>287</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>14</v>
@@ -13725,7 +13740,7 @@
         <v>3</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16" customHeight="1">
@@ -13751,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16" customHeight="1">
@@ -13779,7 +13794,7 @@
         <v>5</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="32" customHeight="1">
@@ -13794,7 +13809,7 @@
         <v>295</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>297</v>
@@ -13807,7 +13822,7 @@
         <v>7</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="32" customHeight="1">
@@ -13815,7 +13830,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
@@ -13863,7 +13878,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
@@ -13881,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16" customHeight="1">
@@ -13913,7 +13928,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>304</v>
@@ -13933,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16" customHeight="1">
@@ -13941,7 +13956,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>306</v>
@@ -13985,7 +14000,7 @@
         <v>7</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16" customHeight="1">
@@ -14085,7 +14100,7 @@
         <v>5</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16" customHeight="1">
@@ -14093,14 +14108,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
         <v>321</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
@@ -14111,7 +14126,7 @@
         <v>2</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="32" customHeight="1">
@@ -14126,7 +14141,7 @@
         <v>324</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>325</v>
@@ -14139,7 +14154,7 @@
         <v>6</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16" customHeight="1">
@@ -14219,7 +14234,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>333</v>
@@ -14241,7 +14256,7 @@
         <v>5</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16" customHeight="1">
@@ -14267,7 +14282,7 @@
         <v>2</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16" customHeight="1">
@@ -14293,7 +14308,7 @@
         <v>2</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="48" customHeight="1">
@@ -14301,7 +14316,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>340</v>
@@ -14323,7 +14338,7 @@
         <v>13</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16" customHeight="1">
@@ -14349,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16" customHeight="1">
@@ -14357,7 +14372,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>345</v>
@@ -14403,7 +14418,7 @@
         <v>8</v>
       </c>
       <c r="I151" s="14" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16" customHeight="1">
@@ -14433,7 +14448,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>354</v>
@@ -14461,7 +14476,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>358</v>
@@ -14489,7 +14504,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>362</v>
@@ -14511,7 +14526,7 @@
         <v>4</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16" customHeight="1">
@@ -14519,7 +14534,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
@@ -14539,7 +14554,7 @@
         <v>2</v>
       </c>
       <c r="I156" s="14" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16" customHeight="1">
@@ -14593,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="14" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="18" customHeight="1">
@@ -14645,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16" customHeight="1">
@@ -14653,7 +14668,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>381</v>
@@ -14697,7 +14712,7 @@
         <v>3</v>
       </c>
       <c r="I162" s="14" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="32" customHeight="1">
@@ -14712,7 +14727,7 @@
         <v>387</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4" t="s">
@@ -14723,7 +14738,7 @@
         <v>4</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16" customHeight="1">
@@ -14749,7 +14764,7 @@
         <v>3</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16" customHeight="1">
@@ -14775,7 +14790,7 @@
         <v>2</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16" customHeight="1">
@@ -14801,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16" customHeight="1">
@@ -14827,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16" customHeight="1">
@@ -14868,7 +14883,7 @@
         <v>399</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
@@ -14903,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16" customHeight="1">
@@ -14931,7 +14946,7 @@
         <v>2</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="32" customHeight="1">
@@ -14939,7 +14954,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>406</v>
@@ -14987,7 +15002,7 @@
         <v>3</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="32" customHeight="1">
@@ -14995,7 +15010,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>413</v>
@@ -15004,7 +15019,7 @@
         <v>414</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="4" t="s">
@@ -15015,7 +15030,7 @@
         <v>6</v>
       </c>
       <c r="I174" s="14" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16" customHeight="1">
@@ -15041,7 +15056,7 @@
         <v>3</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16" customHeight="1">
@@ -15093,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16" customHeight="1">
@@ -15101,7 +15116,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>425</v>
@@ -15121,7 +15136,7 @@
         <v>2</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16" customHeight="1">
@@ -15147,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16" customHeight="1">
@@ -15173,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="16" customHeight="1">
@@ -15188,7 +15203,7 @@
         <v>432</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4" t="s">
@@ -15199,7 +15214,7 @@
         <v>3</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="16" customHeight="1">
@@ -15249,7 +15264,7 @@
         <v>2</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16" customHeight="1">
@@ -15264,7 +15279,7 @@
         <v>441</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4" t="s">
@@ -15275,7 +15290,7 @@
         <v>4</v>
       </c>
       <c r="I184" s="14" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16" customHeight="1">
@@ -15301,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="I185" s="14" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="32" customHeight="1">
@@ -15316,7 +15331,7 @@
         <v>445</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="4" t="s">
@@ -15327,7 +15342,7 @@
         <v>6</v>
       </c>
       <c r="I186" s="14" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16" customHeight="1">
@@ -15342,7 +15357,7 @@
         <v>447</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4" t="s">
@@ -15353,7 +15368,7 @@
         <v>3</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16" customHeight="1">
@@ -15379,7 +15394,7 @@
         <v>3</v>
       </c>
       <c r="I188" s="14" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16" customHeight="1">
@@ -15387,7 +15402,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
@@ -15431,7 +15446,7 @@
         <v>6</v>
       </c>
       <c r="I190" s="14" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16" customHeight="1">
@@ -15439,7 +15454,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>455</v>
@@ -15461,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="14" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16" customHeight="1">
@@ -15469,7 +15484,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>458</v>
@@ -15497,7 +15512,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
@@ -15517,7 +15532,7 @@
         <v>2</v>
       </c>
       <c r="I193" s="14" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16" customHeight="1">
@@ -15567,7 +15582,7 @@
         <v>3</v>
       </c>
       <c r="I195" s="14" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16" customHeight="1">
@@ -15593,7 +15608,7 @@
         <v>2</v>
       </c>
       <c r="I196" s="14" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16" customHeight="1">
@@ -15625,7 +15640,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>472</v>
@@ -15645,7 +15660,7 @@
         <v>2</v>
       </c>
       <c r="I198" s="14" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16" customHeight="1">
@@ -15671,7 +15686,7 @@
         <v>5</v>
       </c>
       <c r="I199" s="14" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="32" customHeight="1">
@@ -15679,7 +15694,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>477</v>
@@ -15701,7 +15716,7 @@
         <v>5</v>
       </c>
       <c r="I200" s="14" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16" customHeight="1">
@@ -15709,7 +15724,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3" t="s">
@@ -15727,7 +15742,7 @@
         <v>2</v>
       </c>
       <c r="I201" s="14" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16" customHeight="1">
@@ -15753,7 +15768,7 @@
         <v>2</v>
       </c>
       <c r="I202" s="14" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16" customHeight="1">
@@ -15779,7 +15794,7 @@
         <v>2</v>
       </c>
       <c r="I203" s="14" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16" customHeight="1">
@@ -15807,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="14" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16" customHeight="1">
@@ -15815,7 +15830,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>493</v>
@@ -15837,7 +15852,7 @@
         <v>2</v>
       </c>
       <c r="I205" s="14" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16" customHeight="1">
@@ -15863,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16" customHeight="1">
@@ -15889,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16" customHeight="1">
@@ -15915,7 +15930,7 @@
         <v>2</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16" customHeight="1">
@@ -15941,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16" customHeight="1">
@@ -15967,7 +15982,7 @@
         <v>3</v>
       </c>
       <c r="I210" s="14" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16" customHeight="1">
@@ -15975,7 +15990,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>509</v>
@@ -16001,7 +16016,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>511</v>
@@ -16029,7 +16044,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
@@ -16055,7 +16070,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>517</v>
@@ -16149,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="I217" s="14" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16" customHeight="1">
@@ -16181,14 +16196,14 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4" t="s">
@@ -16199,7 +16214,7 @@
         <v>4</v>
       </c>
       <c r="I219" s="14" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="64" customHeight="1">
@@ -16225,7 +16240,7 @@
         <v>10</v>
       </c>
       <c r="I220" s="14" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="32" customHeight="1">
@@ -16251,7 +16266,7 @@
         <v>5</v>
       </c>
       <c r="I221" s="14" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16" customHeight="1">
@@ -16277,7 +16292,7 @@
         <v>3</v>
       </c>
       <c r="I222" s="14" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16" customHeight="1">
@@ -16303,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="I223" s="14" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16" customHeight="1">
@@ -16329,7 +16344,7 @@
         <v>2</v>
       </c>
       <c r="I224" s="14" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16" customHeight="1">
@@ -16337,7 +16352,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>539</v>
@@ -16363,7 +16378,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
@@ -16433,7 +16448,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="14" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="16" customHeight="1">
@@ -16459,7 +16474,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="14" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="30" customHeight="1">
@@ -16485,7 +16500,7 @@
         <v>6</v>
       </c>
       <c r="I230" s="14" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="32" customHeight="1">
@@ -16493,14 +16508,14 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3" t="s">
         <v>555</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>556</v>
@@ -16513,7 +16528,7 @@
         <v>3</v>
       </c>
       <c r="I231" s="14" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="16" customHeight="1">
@@ -16563,7 +16578,7 @@
         <v>6</v>
       </c>
       <c r="I233" s="14" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16" customHeight="1">
@@ -16589,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="I234" s="14" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16" customHeight="1">
@@ -16615,7 +16630,7 @@
         <v>2</v>
       </c>
       <c r="I235" s="14" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="32" customHeight="1">
@@ -16627,7 +16642,7 @@
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>569</v>
@@ -16641,7 +16656,7 @@
         <v>5</v>
       </c>
       <c r="I236" s="14" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16" customHeight="1">
@@ -16649,7 +16664,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>570</v>
@@ -16671,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="I237" s="14" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16" customHeight="1">
@@ -16699,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="I238" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16" customHeight="1">
@@ -16749,7 +16764,7 @@
         <v>7</v>
       </c>
       <c r="I240" s="14" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16" customHeight="1">
@@ -16757,7 +16772,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
@@ -16781,7 +16796,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>580</v>
@@ -16809,7 +16824,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>584</v>
@@ -16829,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="14" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16" customHeight="1">
@@ -16837,7 +16852,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>585</v>
@@ -16881,7 +16896,7 @@
         <v>2</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16" customHeight="1">
@@ -16961,7 +16976,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>597</v>
@@ -16987,7 +17002,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>599</v>
@@ -17013,7 +17028,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>601</v>
@@ -17046,7 +17061,7 @@
         <v>604</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="4" t="s">
@@ -17057,7 +17072,7 @@
         <v>5</v>
       </c>
       <c r="I252" s="14" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16" customHeight="1">
@@ -17122,7 +17137,7 @@
         <v>259</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4" t="s">
@@ -17133,7 +17148,7 @@
         <v>5</v>
       </c>
       <c r="I255" s="14" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16" customHeight="1">
@@ -17141,7 +17156,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
@@ -17159,7 +17174,7 @@
         <v>2</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16" customHeight="1">
@@ -17167,7 +17182,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>612</v>
@@ -17187,7 +17202,7 @@
         <v>5</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16" customHeight="1">
@@ -17213,7 +17228,7 @@
         <v>2</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="34" customHeight="1">
@@ -17221,7 +17236,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
@@ -17239,7 +17254,7 @@
         <v>3</v>
       </c>
       <c r="I259" s="14" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="33" customHeight="1">
@@ -17247,7 +17262,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>619</v>
@@ -17256,7 +17271,7 @@
         <v>620</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="4" t="s">
@@ -17267,7 +17282,7 @@
         <v>5</v>
       </c>
       <c r="I260" s="14" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16" customHeight="1">
@@ -17295,7 +17310,7 @@
         <v>2</v>
       </c>
       <c r="I261" s="14" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="48" customHeight="1">
@@ -17321,7 +17336,7 @@
         <v>9</v>
       </c>
       <c r="I262" s="14" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="46" customHeight="1">
@@ -17338,7 +17353,7 @@
         <v>628</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F263" s="4"/>
       <c r="G263" s="4" t="s">
@@ -17349,7 +17364,7 @@
         <v>9</v>
       </c>
       <c r="I263" s="14" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="33" customHeight="1">
@@ -17357,14 +17372,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
         <v>629</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F264" s="4"/>
       <c r="G264" s="4" t="s">
@@ -17375,7 +17390,7 @@
         <v>5</v>
       </c>
       <c r="I264" s="14" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="16" customHeight="1">
@@ -17383,7 +17398,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>630</v>
@@ -17403,7 +17418,7 @@
         <v>2</v>
       </c>
       <c r="I265" s="14" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="16" customHeight="1">
@@ -17429,7 +17444,7 @@
         <v>3</v>
       </c>
       <c r="I266" s="14" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="32" customHeight="1">
@@ -17437,7 +17452,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3" t="s">
@@ -17455,7 +17470,7 @@
         <v>8</v>
       </c>
       <c r="I267" s="14" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="16" customHeight="1">
@@ -17463,14 +17478,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>638</v>
@@ -17483,7 +17498,7 @@
         <v>2</v>
       </c>
       <c r="I268" s="14" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16" customHeight="1">
@@ -17513,7 +17528,7 @@
         <v>2</v>
       </c>
       <c r="I269" s="14" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16" customHeight="1">
@@ -17521,7 +17536,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>641</v>
@@ -17541,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="I270" s="14" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16" customHeight="1">
@@ -17549,7 +17564,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>643</v>
@@ -17571,7 +17586,7 @@
         <v>2</v>
       </c>
       <c r="I271" s="14" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="32" customHeight="1">
@@ -17579,7 +17594,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>645</v>
@@ -17599,7 +17614,7 @@
         <v>2</v>
       </c>
       <c r="I272" s="14" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16" customHeight="1">
@@ -17607,7 +17622,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>648</v>
@@ -17627,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="14" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16" customHeight="1">
@@ -17635,7 +17650,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>651</v>
@@ -17655,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="14" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="32" customHeight="1">
@@ -17663,7 +17678,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>653</v>
@@ -17683,7 +17698,7 @@
         <v>5</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16" customHeight="1">
@@ -17691,7 +17706,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3" t="s">
@@ -17715,7 +17730,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3" t="s">
@@ -17733,7 +17748,7 @@
         <v>5</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16" customHeight="1">
@@ -17741,7 +17756,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>658</v>
@@ -17761,7 +17776,7 @@
         <v>4</v>
       </c>
       <c r="I278" s="14" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16" customHeight="1">
@@ -17787,7 +17802,7 @@
         <v>3</v>
       </c>
       <c r="I279" s="14" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16" customHeight="1">
@@ -17837,7 +17852,7 @@
         <v>3</v>
       </c>
       <c r="I281" s="14" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16" customHeight="1">
@@ -17863,7 +17878,7 @@
         <v>2</v>
       </c>
       <c r="I282" s="14" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16" customHeight="1">
@@ -17871,7 +17886,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>671</v>
@@ -17891,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="14" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16" customHeight="1">
@@ -17917,7 +17932,7 @@
         <v>2</v>
       </c>
       <c r="I284" s="14" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="32" customHeight="1">
@@ -17943,7 +17958,7 @@
         <v>6</v>
       </c>
       <c r="I285" s="14" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16" customHeight="1">
@@ -17951,14 +17966,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3" t="s">
         <v>676</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F286" s="4"/>
       <c r="G286" s="4" t="s">
@@ -17969,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="I286" s="14" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16" customHeight="1">
@@ -17995,7 +18010,7 @@
         <v>2</v>
       </c>
       <c r="I287" s="14" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="16" customHeight="1">
@@ -18029,7 +18044,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3" t="s">
@@ -18047,7 +18062,7 @@
         <v>2</v>
       </c>
       <c r="I289" s="14" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16" customHeight="1">
@@ -18055,7 +18070,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>685</v>
@@ -18081,7 +18096,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>687</v>
@@ -18103,7 +18118,7 @@
         <v>2</v>
       </c>
       <c r="I291" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16" customHeight="1">
@@ -18111,7 +18126,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
@@ -18135,7 +18150,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3" t="s">
@@ -18153,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="14" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16" customHeight="1">
@@ -18185,7 +18200,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>697</v>
@@ -18211,7 +18226,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>700</v>
@@ -18231,7 +18246,7 @@
         <v>4</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16" customHeight="1">
@@ -18285,7 +18300,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>704</v>
@@ -18329,7 +18344,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="14" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16" customHeight="1">
@@ -18355,7 +18370,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="14" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16" customHeight="1">
@@ -18363,7 +18378,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>711</v>
@@ -18383,7 +18398,7 @@
         <v>1</v>
       </c>
       <c r="I302" s="14" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16" customHeight="1">
@@ -18391,7 +18406,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>714</v>
@@ -18419,7 +18434,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
@@ -18476,7 +18491,7 @@
         <v>9</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F306" s="4"/>
       <c r="G306" s="4" t="s">
@@ -18487,7 +18502,7 @@
         <v>3</v>
       </c>
       <c r="I306" s="14" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16" customHeight="1">
@@ -18519,7 +18534,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
@@ -18561,7 +18576,7 @@
         <v>6</v>
       </c>
       <c r="I309" s="14" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16" customHeight="1">
@@ -18587,7 +18602,7 @@
         <v>4</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="16" customHeight="1">
@@ -18613,7 +18628,7 @@
         <v>2</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16" customHeight="1">
@@ -18639,7 +18654,7 @@
         <v>3</v>
       </c>
       <c r="I312" s="14" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16" customHeight="1">
@@ -18665,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16" customHeight="1">
@@ -18673,7 +18688,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3" t="s">
@@ -18691,7 +18706,7 @@
         <v>2</v>
       </c>
       <c r="I314" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16" customHeight="1">
@@ -18717,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16" customHeight="1">
@@ -18743,7 +18758,7 @@
         <v>2</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16" customHeight="1">
@@ -18751,7 +18766,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
@@ -18819,7 +18834,7 @@
         <v>5</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16" customHeight="1">
@@ -18845,7 +18860,7 @@
         <v>3</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16" customHeight="1">
@@ -18871,7 +18886,7 @@
         <v>2</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16" customHeight="1">
@@ -18995,7 +19010,7 @@
         <v>6</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16" customHeight="1">
@@ -19003,7 +19018,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>767</v>
@@ -19029,7 +19044,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
@@ -19047,7 +19062,7 @@
         <v>3</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16" customHeight="1">
@@ -19073,7 +19088,7 @@
         <v>4</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16" customHeight="1">
@@ -19099,7 +19114,7 @@
         <v>4</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16" customHeight="1">
@@ -19155,7 +19170,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>779</v>
@@ -19175,7 +19190,7 @@
         <v>2</v>
       </c>
       <c r="I333" s="14" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16" customHeight="1">
@@ -19183,7 +19198,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
@@ -19225,7 +19240,7 @@
         <v>3</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="16" customHeight="1">
@@ -19233,7 +19248,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>783</v>
@@ -19253,7 +19268,7 @@
         <v>4</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="16" customHeight="1">
@@ -19279,7 +19294,7 @@
         <v>2</v>
       </c>
       <c r="I337" s="14" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="16" customHeight="1">
@@ -19311,7 +19326,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
@@ -19329,7 +19344,7 @@
         <v>5</v>
       </c>
       <c r="I339" s="14" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="16" customHeight="1">
@@ -19361,7 +19376,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3" t="s">
@@ -19403,7 +19418,7 @@
         <v>1</v>
       </c>
       <c r="I342" s="14" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="16" customHeight="1">
@@ -19429,7 +19444,7 @@
         <v>4</v>
       </c>
       <c r="I343" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="32" customHeight="1">
@@ -19459,7 +19474,7 @@
         <v>2</v>
       </c>
       <c r="I344" s="14" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="16" customHeight="1">
@@ -19485,7 +19500,7 @@
         <v>1</v>
       </c>
       <c r="I345" s="14" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="16" customHeight="1">
@@ -19493,7 +19508,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>804</v>
@@ -19528,7 +19543,7 @@
         <v>807</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="F347" s="4"/>
       <c r="G347" s="4" t="s">
@@ -19539,7 +19554,7 @@
         <v>3</v>
       </c>
       <c r="I347" s="14" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="64" customHeight="1">
@@ -19547,7 +19562,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>808</v>
@@ -19569,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="I348" s="14" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="16" customHeight="1">
@@ -19595,7 +19610,7 @@
         <v>4</v>
       </c>
       <c r="I349" s="14" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="16" customHeight="1">
@@ -19643,7 +19658,7 @@
         <v>3</v>
       </c>
       <c r="I351" s="14" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="16" customHeight="1">
@@ -19658,7 +19673,7 @@
         <v>691</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F352" s="4"/>
       <c r="G352" s="4" t="s">
@@ -19669,7 +19684,7 @@
         <v>3</v>
       </c>
       <c r="I352" s="14" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="16" customHeight="1">
@@ -19695,7 +19710,7 @@
         <v>3</v>
       </c>
       <c r="I353" s="14" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="16" customHeight="1">
@@ -19721,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="14" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="16" customHeight="1">
@@ -19843,7 +19858,7 @@
         <v>3</v>
       </c>
       <c r="I359" s="14" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="16" customHeight="1">
@@ -19875,7 +19890,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3" t="s">
@@ -19893,7 +19908,7 @@
         <v>2</v>
       </c>
       <c r="I361" s="14" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="16" customHeight="1">
@@ -19908,7 +19923,7 @@
         <v>9</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F362" s="4"/>
       <c r="G362" s="4" t="s">
@@ -19919,7 +19934,7 @@
         <v>4</v>
       </c>
       <c r="I362" s="14" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="16" customHeight="1">
@@ -19945,7 +19960,7 @@
         <v>1</v>
       </c>
       <c r="I363" s="14" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="16" customHeight="1">
@@ -19971,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="I364" s="14" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="16" customHeight="1">
@@ -19997,7 +20012,7 @@
         <v>2</v>
       </c>
       <c r="I365" s="14" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="16" customHeight="1">
@@ -20119,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="I370" s="14" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="16" customHeight="1">
@@ -20145,7 +20160,7 @@
         <v>2</v>
       </c>
       <c r="I371" s="14" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="16" customHeight="1">
@@ -20171,7 +20186,7 @@
         <v>2</v>
       </c>
       <c r="I372" s="14" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="16" customHeight="1">
@@ -20197,7 +20212,7 @@
         <v>1</v>
       </c>
       <c r="I373" s="14" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="16" customHeight="1">
@@ -20223,7 +20238,7 @@
         <v>2</v>
       </c>
       <c r="I374" s="14" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="16" customHeight="1">
@@ -20249,7 +20264,7 @@
         <v>1</v>
       </c>
       <c r="I375" s="14" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="16" customHeight="1">
@@ -20257,7 +20272,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C376" s="3"/>
       <c r="D376" s="3" t="s">
@@ -20275,7 +20290,7 @@
         <v>2</v>
       </c>
       <c r="I376" s="14" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="16" customHeight="1">
@@ -20301,7 +20316,7 @@
         <v>3</v>
       </c>
       <c r="I377" s="14" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="16" customHeight="1">
@@ -20327,7 +20342,7 @@
         <v>2</v>
       </c>
       <c r="I378" s="14" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="16" customHeight="1">
@@ -20335,7 +20350,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C379" s="3"/>
       <c r="D379" s="3" t="s">
@@ -20353,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="I379" s="14" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="16" customHeight="1">
@@ -20361,7 +20376,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>867</v>
@@ -20381,7 +20396,7 @@
         <v>2</v>
       </c>
       <c r="I380" s="14" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="16" customHeight="1">
@@ -20407,7 +20422,7 @@
         <v>2</v>
       </c>
       <c r="I381" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="16" customHeight="1">
@@ -20435,7 +20450,7 @@
         <v>4</v>
       </c>
       <c r="I382" s="14" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="16" customHeight="1">
@@ -20461,7 +20476,7 @@
         <v>1</v>
       </c>
       <c r="I383" s="14" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="16" customHeight="1">
@@ -20495,7 +20510,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>879</v>
@@ -20515,7 +20530,7 @@
         <v>2</v>
       </c>
       <c r="I385" s="14" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="32" customHeight="1">
@@ -20541,7 +20556,7 @@
         <v>5</v>
       </c>
       <c r="I386" s="14" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="16" customHeight="1">
@@ -20567,7 +20582,7 @@
         <v>4</v>
       </c>
       <c r="I387" s="14" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="16" customHeight="1">
@@ -20582,7 +20597,7 @@
         <v>283</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="4" t="s">
@@ -20593,7 +20608,7 @@
         <v>2</v>
       </c>
       <c r="I388" s="14" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="32" customHeight="1">
@@ -20619,7 +20634,7 @@
         <v>8</v>
       </c>
       <c r="I389" s="14" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="16" customHeight="1">
@@ -20645,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="I390" s="14" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="16" customHeight="1">
@@ -20671,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="I391" s="14" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="16" customHeight="1">
@@ -20697,7 +20712,7 @@
         <v>4</v>
       </c>
       <c r="I392" s="14" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="16" customHeight="1">
@@ -20723,7 +20738,7 @@
         <v>2</v>
       </c>
       <c r="I393" s="14" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="16" customHeight="1">
@@ -20749,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I394" s="14" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="16" customHeight="1">
@@ -20775,7 +20790,7 @@
         <v>1</v>
       </c>
       <c r="I395" s="14" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="16" customHeight="1">
@@ -20801,7 +20816,7 @@
         <v>1</v>
       </c>
       <c r="I396" s="14" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="32" customHeight="1">
@@ -20816,7 +20831,7 @@
         <v>9</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="F397" s="4"/>
       <c r="G397" s="4" t="s">
@@ -20827,7 +20842,7 @@
         <v>5</v>
       </c>
       <c r="I397" s="14" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="47" customHeight="1">
@@ -20842,7 +20857,7 @@
         <v>166</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F398" s="4"/>
       <c r="G398" s="4" t="s">
@@ -20853,7 +20868,7 @@
         <v>11</v>
       </c>
       <c r="I398" s="14" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="16" customHeight="1">
@@ -20903,7 +20918,7 @@
         <v>2</v>
       </c>
       <c r="I400" s="14" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="16" customHeight="1">
@@ -20929,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="I401" s="14" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="16" customHeight="1">
@@ -20944,7 +20959,7 @@
         <v>818</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="F402" s="4"/>
       <c r="G402" s="4" t="s">
@@ -20955,7 +20970,7 @@
         <v>2</v>
       </c>
       <c r="I402" s="14" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="16" customHeight="1">
@@ -20963,14 +20978,14 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C403" s="3"/>
       <c r="D403" s="3" t="s">
         <v>918</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F403" s="4" t="s">
         <v>919</v>
@@ -20983,7 +20998,7 @@
         <v>3</v>
       </c>
       <c r="I403" s="14" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="16" customHeight="1">
@@ -21009,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="I404" s="14" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="16" customHeight="1">
@@ -21037,7 +21052,7 @@
         <v>2</v>
       </c>
       <c r="I405" s="14" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="16" customHeight="1">
@@ -21063,7 +21078,7 @@
         <v>1</v>
       </c>
       <c r="I406" s="14" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="16" customHeight="1">
@@ -21089,7 +21104,7 @@
         <v>1</v>
       </c>
       <c r="I407" s="14" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="16" customHeight="1">
@@ -21115,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="I408" s="14" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="16" customHeight="1">
@@ -21141,7 +21156,7 @@
         <v>2</v>
       </c>
       <c r="I409" s="14" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="16" customHeight="1">
@@ -21156,7 +21171,7 @@
         <v>124</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F410" s="4"/>
       <c r="G410" s="4" t="s">
@@ -21167,7 +21182,7 @@
         <v>4</v>
       </c>
       <c r="I410" s="14" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="16" customHeight="1">
@@ -21193,7 +21208,7 @@
         <v>2</v>
       </c>
       <c r="I411" s="14" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="16" customHeight="1">
@@ -21208,7 +21223,7 @@
         <v>940</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F412" s="4"/>
       <c r="G412" s="4" t="s">
@@ -21219,7 +21234,7 @@
         <v>4</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="16" customHeight="1">
@@ -21245,7 +21260,7 @@
         <v>1</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="16" customHeight="1">
@@ -21319,7 +21334,7 @@
         <v>4</v>
       </c>
       <c r="I416" s="14" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="16" customHeight="1">
@@ -21345,7 +21360,7 @@
         <v>2</v>
       </c>
       <c r="I417" s="14" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="16" customHeight="1">
@@ -21397,7 +21412,7 @@
         <v>1</v>
       </c>
       <c r="I419" s="14" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="16" customHeight="1">
@@ -21423,7 +21438,7 @@
         <v>3</v>
       </c>
       <c r="I420" s="14" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="16" customHeight="1">
@@ -21431,7 +21446,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>955</v>
@@ -21464,7 +21479,7 @@
         <v>62</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="F422" s="4"/>
       <c r="G422" s="4" t="s">
@@ -21475,7 +21490,7 @@
         <v>3</v>
       </c>
       <c r="I422" s="14" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="16" customHeight="1">
@@ -21527,7 +21542,7 @@
         <v>2</v>
       </c>
       <c r="I424" s="14" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="16" customHeight="1">
@@ -21542,7 +21557,7 @@
         <v>481</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="F425" s="4"/>
       <c r="G425" s="4" t="s">
@@ -21553,7 +21568,7 @@
         <v>3</v>
       </c>
       <c r="I425" s="14" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="16" customHeight="1">
@@ -21579,7 +21594,7 @@
         <v>4</v>
       </c>
       <c r="I426" s="14" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="16" customHeight="1">
@@ -21609,7 +21624,7 @@
         <v>4</v>
       </c>
       <c r="I427" s="14" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="16" customHeight="1">
@@ -21635,7 +21650,7 @@
         <v>1</v>
       </c>
       <c r="I428" s="14" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="16" customHeight="1">
@@ -21661,7 +21676,7 @@
         <v>2</v>
       </c>
       <c r="I429" s="14" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="16" customHeight="1">
@@ -21669,7 +21684,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="3" t="s">
@@ -21693,7 +21708,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C431" s="3"/>
       <c r="D431" s="3" t="s">
@@ -21711,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="16" customHeight="1">
@@ -21737,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="16" customHeight="1">
@@ -21763,7 +21778,7 @@
         <v>1</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="16" customHeight="1">
@@ -21771,7 +21786,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
@@ -21813,7 +21828,7 @@
         <v>2</v>
       </c>
       <c r="I435" s="14" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="16" customHeight="1">
@@ -21839,7 +21854,7 @@
         <v>2</v>
       </c>
       <c r="I436" s="14" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="16" customHeight="1">
@@ -21847,7 +21862,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>986</v>
@@ -21893,7 +21908,7 @@
         <v>2</v>
       </c>
       <c r="I438" s="14" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="16" customHeight="1">
@@ -21901,7 +21916,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>992</v>
@@ -21927,7 +21942,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>995</v>
@@ -21953,7 +21968,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>996</v>
@@ -21997,7 +22012,7 @@
         <v>2</v>
       </c>
       <c r="I442" s="14" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="16" customHeight="1">
@@ -22023,7 +22038,7 @@
         <v>1</v>
       </c>
       <c r="I443" s="14" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="16" customHeight="1">
@@ -22073,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="I445" s="14" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="16" customHeight="1">
@@ -22121,7 +22136,7 @@
         <v>1</v>
       </c>
       <c r="I447" s="14" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="16" customHeight="1">
@@ -22147,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="I448" s="14" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="16" customHeight="1">
@@ -22179,7 +22194,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C450" s="3"/>
       <c r="D450" s="3" t="s">
@@ -22269,7 +22284,7 @@
         <v>1</v>
       </c>
       <c r="I453" s="14" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="16" customHeight="1">
@@ -22295,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="I454" s="14" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="16" customHeight="1">
@@ -22303,7 +22318,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>1021</v>
@@ -22323,7 +22338,7 @@
         <v>4</v>
       </c>
       <c r="I455" s="14" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="16" customHeight="1">
@@ -22349,7 +22364,7 @@
         <v>1</v>
       </c>
       <c r="I456" s="14" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="16" customHeight="1">
@@ -22412,7 +22427,7 @@
         <v>9</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F459" s="4"/>
       <c r="G459" s="4" t="s">
@@ -22423,7 +22438,7 @@
         <v>4</v>
       </c>
       <c r="I459" s="14" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="16" customHeight="1">
@@ -22449,7 +22464,7 @@
         <v>4</v>
       </c>
       <c r="I460" s="14" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="16" customHeight="1">
@@ -22475,7 +22490,7 @@
         <v>2</v>
       </c>
       <c r="I461" s="14" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="16" customHeight="1">
@@ -22501,7 +22516,7 @@
         <v>2</v>
       </c>
       <c r="I462" s="14" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="463" spans="1:9" ht="16" customHeight="1">
@@ -22551,7 +22566,7 @@
         <v>2</v>
       </c>
       <c r="I464" s="14" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="16" customHeight="1">
@@ -22607,7 +22622,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C467" s="3"/>
       <c r="D467" s="3" t="s">
@@ -22625,7 +22640,7 @@
         <v>1</v>
       </c>
       <c r="I467" s="14" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="16" customHeight="1">
@@ -22675,7 +22690,7 @@
         <v>3</v>
       </c>
       <c r="I469" s="14" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="16" customHeight="1">
@@ -22701,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="I470" s="14" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="16" customHeight="1">
@@ -22740,7 +22755,7 @@
         <v>33</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F472" s="4"/>
       <c r="G472" s="4" t="s">
@@ -22751,7 +22766,7 @@
         <v>2</v>
       </c>
       <c r="I472" s="14" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="16" customHeight="1">
@@ -22777,7 +22792,7 @@
         <v>4</v>
       </c>
       <c r="I473" s="14" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="16" customHeight="1">
@@ -22792,7 +22807,7 @@
         <v>9</v>
       </c>
       <c r="E474" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F474" s="4"/>
       <c r="G474" s="4" t="s">
@@ -22803,7 +22818,7 @@
         <v>4</v>
       </c>
       <c r="I474" s="14" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="16" customHeight="1">
@@ -22925,7 +22940,7 @@
         <v>1</v>
       </c>
       <c r="I479" s="14" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="16" customHeight="1">
@@ -22975,7 +22990,7 @@
         <v>4</v>
       </c>
       <c r="I481" s="14" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="16" customHeight="1">
@@ -23001,7 +23016,7 @@
         <v>1</v>
       </c>
       <c r="I482" s="14" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="16" customHeight="1">
@@ -23027,7 +23042,7 @@
         <v>1</v>
       </c>
       <c r="I483" s="14" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="16" customHeight="1">
@@ -23053,7 +23068,7 @@
         <v>1</v>
       </c>
       <c r="I484" s="14" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="16" customHeight="1">
@@ -23079,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="I485" s="14" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="16" customHeight="1">
@@ -23105,7 +23120,7 @@
         <v>1</v>
       </c>
       <c r="I486" s="14" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="16" customHeight="1">
@@ -23131,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="I487" s="14" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="16" customHeight="1">
@@ -23157,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="I488" s="14" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="16" customHeight="1">
@@ -23189,7 +23204,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C490" s="3"/>
       <c r="D490" s="3" t="s">
@@ -23207,7 +23222,7 @@
         <v>1</v>
       </c>
       <c r="I490" s="14" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="32" customHeight="1">
@@ -23215,7 +23230,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C491" s="3"/>
       <c r="D491" s="3" t="s">
@@ -23257,7 +23272,7 @@
         <v>1</v>
       </c>
       <c r="I492" s="14" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="16" customHeight="1">
@@ -23283,7 +23298,7 @@
         <v>1</v>
       </c>
       <c r="I493" s="14" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="16" customHeight="1">
@@ -23309,7 +23324,7 @@
         <v>2</v>
       </c>
       <c r="I494" s="14" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="16" customHeight="1">
@@ -23335,7 +23350,7 @@
         <v>2</v>
       </c>
       <c r="I495" s="14" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="16" customHeight="1">
@@ -23343,7 +23358,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C496" s="3"/>
       <c r="D496" s="3" t="s">
@@ -23361,7 +23376,7 @@
         <v>1</v>
       </c>
       <c r="I496" s="14" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="497" spans="1:9" ht="16" customHeight="1">
@@ -23369,7 +23384,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>1092</v>
@@ -23397,7 +23412,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C498" s="3"/>
       <c r="D498" s="3" t="s">
@@ -23428,7 +23443,7 @@
         <v>447</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F499" s="4"/>
       <c r="G499" s="4" t="s">
@@ -23439,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="I499" s="14" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="16" customHeight="1">
@@ -23465,7 +23480,7 @@
         <v>1</v>
       </c>
       <c r="I500" s="14" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="501" spans="1:9" ht="16" customHeight="1">
@@ -23491,7 +23506,7 @@
         <v>2</v>
       </c>
       <c r="I501" s="14" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="16" customHeight="1">
@@ -23499,7 +23514,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C502" s="3"/>
       <c r="D502" s="3" t="s">
@@ -23519,7 +23534,7 @@
         <v>1</v>
       </c>
       <c r="I502" s="14" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="16" customHeight="1">
@@ -23545,7 +23560,7 @@
         <v>1</v>
       </c>
       <c r="I503" s="14" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="16" customHeight="1">
@@ -23614,7 +23629,7 @@
         <v>1111</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="F506" s="4" t="s">
         <v>1112</v>
@@ -23640,7 +23655,7 @@
         <v>1114</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F507" s="4"/>
       <c r="G507" s="4" t="s">
@@ -23651,7 +23666,7 @@
         <v>2</v>
       </c>
       <c r="I507" s="14" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="508" spans="1:9" ht="16" customHeight="1">
@@ -23677,7 +23692,7 @@
         <v>1</v>
       </c>
       <c r="I508" s="14" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="509" spans="1:9" ht="16" customHeight="1">
@@ -23709,7 +23724,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C510" s="3"/>
       <c r="D510" s="3" t="s">
@@ -23751,7 +23766,7 @@
         <v>3</v>
       </c>
       <c r="I511" s="14" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="16" customHeight="1">
@@ -23766,7 +23781,7 @@
         <v>1123</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F512" s="4"/>
       <c r="G512" s="4" t="s">
@@ -23777,7 +23792,7 @@
         <v>3</v>
       </c>
       <c r="I512" s="14" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="16" customHeight="1">
@@ -23803,7 +23818,7 @@
         <v>1</v>
       </c>
       <c r="I513" s="14" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="16" customHeight="1">
@@ -23829,7 +23844,7 @@
         <v>4</v>
       </c>
       <c r="I514" s="14" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="16" customHeight="1">
@@ -23855,7 +23870,7 @@
         <v>1</v>
       </c>
       <c r="I515" s="14" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="16" customHeight="1">
@@ -23881,7 +23896,7 @@
         <v>2</v>
       </c>
       <c r="I516" s="14" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="16" customHeight="1">
@@ -23896,7 +23911,7 @@
         <v>1132</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F517" s="4"/>
       <c r="G517" s="4" t="s">
@@ -23907,7 +23922,7 @@
         <v>3</v>
       </c>
       <c r="I517" s="14" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="518" spans="1:9" ht="31" customHeight="1">
@@ -23915,7 +23930,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C518" s="3" t="s">
         <v>1133</v>
@@ -23935,7 +23950,7 @@
         <v>5</v>
       </c>
       <c r="I518" s="14" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="519" spans="1:9" ht="16" customHeight="1">
@@ -23961,7 +23976,7 @@
         <v>1</v>
       </c>
       <c r="I519" s="14" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="16" customHeight="1">
@@ -24011,7 +24026,7 @@
         <v>2</v>
       </c>
       <c r="I521" s="14" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="16" customHeight="1">
@@ -24037,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="I522" s="14" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="523" spans="1:9" ht="16" customHeight="1">
@@ -24063,7 +24078,7 @@
         <v>1</v>
       </c>
       <c r="I523" s="14" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="524" spans="1:9" ht="16" customHeight="1">
@@ -24089,7 +24104,7 @@
         <v>1</v>
       </c>
       <c r="I524" s="14" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="16" customHeight="1">
@@ -24097,7 +24112,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C525" s="3"/>
       <c r="D525" s="3" t="s">
@@ -24115,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="I525" s="14" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="526" spans="1:9" ht="16" customHeight="1">
@@ -24141,7 +24156,7 @@
         <v>1</v>
       </c>
       <c r="I526" s="14" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="16" customHeight="1">
@@ -24167,7 +24182,7 @@
         <v>2</v>
       </c>
       <c r="I527" s="14" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="16" customHeight="1">
@@ -24193,7 +24208,7 @@
         <v>1</v>
       </c>
       <c r="I528" s="14" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="16" customHeight="1">
@@ -24201,7 +24216,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C529" s="3" t="s">
         <v>1155</v>
@@ -24210,7 +24225,7 @@
         <v>109</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="F529" s="4" t="s">
         <v>1156</v>
@@ -24223,7 +24238,7 @@
         <v>3</v>
       </c>
       <c r="I529" s="14" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="16" customHeight="1">
@@ -24238,7 +24253,7 @@
         <v>33</v>
       </c>
       <c r="E530" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F530" s="4"/>
       <c r="G530" s="4" t="s">
@@ -24249,7 +24264,7 @@
         <v>2</v>
       </c>
       <c r="I530" s="14" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="16" customHeight="1">
@@ -24257,14 +24272,14 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C531" s="3"/>
       <c r="D531" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="E531" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F531" s="4"/>
       <c r="G531" s="4" t="s">
@@ -24299,7 +24314,7 @@
         <v>6</v>
       </c>
       <c r="I532" s="14" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="533" spans="1:9" ht="16" customHeight="1">
@@ -24325,7 +24340,7 @@
         <v>4</v>
       </c>
       <c r="I533" s="14" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="16" customHeight="1">
@@ -24351,7 +24366,7 @@
         <v>1</v>
       </c>
       <c r="I534" s="14" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="16" customHeight="1">
@@ -24379,7 +24394,7 @@
         <v>2</v>
       </c>
       <c r="I535" s="14" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="16" customHeight="1">
@@ -24405,7 +24420,7 @@
         <v>2</v>
       </c>
       <c r="I536" s="14" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="16" customHeight="1">
@@ -24431,7 +24446,7 @@
         <v>2</v>
       </c>
       <c r="I537" s="14" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="16" customHeight="1">
@@ -24481,7 +24496,7 @@
         <v>3</v>
       </c>
       <c r="I539" s="14" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="16" customHeight="1">
@@ -24535,7 +24550,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C542" s="3" t="s">
         <v>1175</v>
@@ -24579,7 +24594,7 @@
         <v>1</v>
       </c>
       <c r="I543" s="14" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="16" customHeight="1">
@@ -24605,7 +24620,7 @@
         <v>1</v>
       </c>
       <c r="I544" s="14" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="545" spans="1:9" ht="16" customHeight="1">
@@ -24631,7 +24646,7 @@
         <v>1</v>
       </c>
       <c r="I545" s="14" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="546" spans="1:9" ht="16" customHeight="1">
@@ -24657,7 +24672,7 @@
         <v>2</v>
       </c>
       <c r="I546" s="14" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="547" spans="1:9" ht="16" customHeight="1">
@@ -24681,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="I547" s="14" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="548" spans="1:9" ht="16" customHeight="1">
@@ -24707,7 +24722,7 @@
         <v>1</v>
       </c>
       <c r="I548" s="14" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="16" customHeight="1">
@@ -24722,7 +24737,7 @@
         <v>590</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F549" s="4"/>
       <c r="G549" s="4" t="s">
@@ -24733,7 +24748,7 @@
         <v>2</v>
       </c>
       <c r="I549" s="14" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="550" spans="1:9" ht="16" customHeight="1">
@@ -24759,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="I550" s="14" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="551" spans="1:9" ht="16" customHeight="1">
@@ -24785,7 +24800,7 @@
         <v>4</v>
       </c>
       <c r="I551" s="14" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="16" customHeight="1">
@@ -24811,7 +24826,7 @@
         <v>2</v>
       </c>
       <c r="I552" s="14" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="16" customHeight="1">
@@ -24819,7 +24834,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>1194</v>
@@ -24889,7 +24904,7 @@
         <v>1</v>
       </c>
       <c r="I555" s="14" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="16" customHeight="1">
@@ -24921,14 +24936,14 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C557" s="3"/>
       <c r="D557" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F557" s="4"/>
       <c r="G557" s="4" t="s">
@@ -24987,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="I559" s="14" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="560" spans="1:9" ht="16" customHeight="1">
@@ -25063,7 +25078,7 @@
         <v>1</v>
       </c>
       <c r="I562" s="14" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="16" customHeight="1">
@@ -25113,7 +25128,7 @@
         <v>2</v>
       </c>
       <c r="I564" s="14" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="565" spans="1:9" ht="16" customHeight="1">
@@ -25128,7 +25143,7 @@
         <v>9</v>
       </c>
       <c r="E565" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F565" s="4"/>
       <c r="G565" s="4" t="s">
@@ -25139,7 +25154,7 @@
         <v>4</v>
       </c>
       <c r="I565" s="14" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="566" spans="1:9" ht="16" customHeight="1">
@@ -25213,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="I568" s="14" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="569" spans="1:9" ht="16" customHeight="1">
@@ -25239,7 +25254,7 @@
         <v>1</v>
       </c>
       <c r="I569" s="14" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="570" spans="1:9" ht="16" customHeight="1">
@@ -25247,7 +25262,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C570" s="3" t="s">
         <v>1226</v>
@@ -25291,7 +25306,7 @@
         <v>1</v>
       </c>
       <c r="I571" s="14" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="572" spans="1:9" ht="16" customHeight="1">
@@ -25341,7 +25356,7 @@
         <v>2</v>
       </c>
       <c r="I573" s="14" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="574" spans="1:9" ht="32" customHeight="1">
@@ -25349,7 +25364,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C574" s="3"/>
       <c r="D574" s="3" t="s">
@@ -25367,7 +25382,7 @@
         <v>3</v>
       </c>
       <c r="I574" s="14" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="575" spans="1:9" ht="16" customHeight="1">
@@ -25478,7 +25493,7 @@
         <v>394</v>
       </c>
       <c r="E579" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F579" s="4"/>
       <c r="G579" s="4" t="s">
@@ -25513,7 +25528,7 @@
         <v>3</v>
       </c>
       <c r="I580" s="14" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="581" spans="1:9" ht="16" customHeight="1">
@@ -25528,7 +25543,7 @@
         <v>303</v>
       </c>
       <c r="E581" s="4" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="F581" s="4"/>
       <c r="G581" s="4" t="s">
@@ -25539,7 +25554,7 @@
         <v>3</v>
       </c>
       <c r="I581" s="14" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="582" spans="1:9" ht="31" customHeight="1">
@@ -25565,7 +25580,7 @@
         <v>7</v>
       </c>
       <c r="I582" s="14" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="16" customHeight="1">
@@ -25591,7 +25606,7 @@
         <v>3</v>
       </c>
       <c r="I583" s="14" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="584" spans="1:9" ht="16" customHeight="1">
@@ -25599,7 +25614,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C584" s="3"/>
       <c r="D584" s="3" t="s">
@@ -25617,7 +25632,7 @@
         <v>1</v>
       </c>
       <c r="I584" s="14" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="585" spans="1:9" ht="16" customHeight="1">
@@ -25649,7 +25664,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C586" s="3" t="s">
         <v>1256</v>
@@ -25669,7 +25684,7 @@
         <v>2</v>
       </c>
       <c r="I586" s="14" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="587" spans="1:9" ht="34" customHeight="1">
@@ -25703,7 +25718,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C588" s="3" t="s">
         <v>1260</v>
@@ -25729,7 +25744,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C589" s="3" t="s">
         <v>1263</v>
@@ -25755,7 +25770,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>1265</v>
@@ -25764,7 +25779,7 @@
         <v>1266</v>
       </c>
       <c r="E590" s="4" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="F590" s="4"/>
       <c r="G590" s="4" t="s">
@@ -25775,7 +25790,7 @@
         <v>2</v>
       </c>
       <c r="I590" s="14" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="591" spans="1:9" ht="16" customHeight="1">
@@ -25783,7 +25798,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C591" s="3" t="s">
         <v>1267</v>
@@ -25809,7 +25824,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C592" s="3" t="s">
         <v>1268</v>
@@ -25835,7 +25850,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>1270</v>
@@ -25885,7 +25900,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C595" s="3" t="s">
         <v>1274</v>
@@ -25905,7 +25920,7 @@
         <v>1</v>
       </c>
       <c r="I595" s="14" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="16" customHeight="1">
@@ -26003,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="I599" s="14" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="600" spans="1:9" ht="16" customHeight="1">
@@ -26011,7 +26026,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C600" s="3" t="s">
         <v>1285</v>
@@ -26033,7 +26048,7 @@
         <v>2</v>
       </c>
       <c r="I600" s="14" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="601" spans="1:9" ht="16" customHeight="1">
@@ -26041,7 +26056,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C601" s="3" t="s">
         <v>1289</v>
@@ -26061,7 +26076,7 @@
         <v>1</v>
       </c>
       <c r="I601" s="14" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="602" spans="1:9" ht="16" customHeight="1">
@@ -26113,7 +26128,7 @@
         <v>2</v>
       </c>
       <c r="I603" s="14" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="16" customHeight="1">
@@ -26121,7 +26136,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C604" s="3" t="s">
         <v>1295</v>
@@ -26147,7 +26162,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C605" s="3" t="s">
         <v>1296</v>
@@ -26173,7 +26188,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C606" s="3" t="s">
         <v>1298</v>
@@ -26199,7 +26214,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C607" s="3"/>
       <c r="D607" s="3" t="s">
@@ -26249,7 +26264,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C609" s="3" t="s">
         <v>1302</v>
@@ -26299,7 +26314,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C611" s="3" t="s">
         <v>1306</v>
@@ -26325,7 +26340,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>1308</v>
@@ -26345,7 +26360,7 @@
         <v>4</v>
       </c>
       <c r="I612" s="14" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="16" customHeight="1">
@@ -26401,7 +26416,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C615" s="3" t="s">
         <v>1314</v>
@@ -26427,7 +26442,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C616" s="3"/>
       <c r="D616" s="3" t="s">
@@ -26517,7 +26532,7 @@
         <v>2</v>
       </c>
       <c r="I619" s="14" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="620" spans="1:9" ht="16" customHeight="1">
@@ -26525,7 +26540,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C620" s="3" t="s">
         <v>1325</v>
@@ -26551,7 +26566,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C621" s="3" t="s">
         <v>1327</v>
@@ -26595,7 +26610,7 @@
         <v>2</v>
       </c>
       <c r="I622" s="14" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="623" spans="1:9" ht="16" customHeight="1">
@@ -26627,7 +26642,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C624" s="3" t="s">
         <v>1333</v>
@@ -26677,7 +26692,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C626" s="3" t="s">
         <v>1339</v>
@@ -26705,7 +26720,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C627" s="3"/>
       <c r="D627" s="3" t="s">
@@ -26725,7 +26740,7 @@
         <v>1</v>
       </c>
       <c r="I627" s="14" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="628" spans="1:9" ht="16" customHeight="1">
@@ -26733,7 +26748,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C628" s="3" t="s">
         <v>1343</v>
@@ -26761,7 +26776,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C629" s="3" t="s">
         <v>1346</v>
@@ -26783,7 +26798,7 @@
         <v>3</v>
       </c>
       <c r="I629" s="14" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="630" spans="1:9" ht="16" customHeight="1">
@@ -26791,7 +26806,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C630" s="3"/>
       <c r="D630" s="3" t="s">
@@ -26833,7 +26848,7 @@
         <v>3</v>
       </c>
       <c r="I631" s="14" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="16" customHeight="1">
@@ -26883,7 +26898,7 @@
         <v>2</v>
       </c>
       <c r="I633" s="14" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="634" spans="1:9" ht="16" customHeight="1">
@@ -26909,7 +26924,7 @@
         <v>3</v>
       </c>
       <c r="I634" s="14" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="635" spans="1:9" ht="16" customHeight="1">
@@ -26935,7 +26950,7 @@
         <v>1</v>
       </c>
       <c r="I635" s="14" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="636" spans="1:9" ht="16" customHeight="1">
@@ -26943,14 +26958,14 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C636" s="3"/>
       <c r="D636" s="3" t="s">
         <v>1360</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="F636" s="4"/>
       <c r="G636" s="4" t="s">
@@ -26961,7 +26976,7 @@
         <v>3</v>
       </c>
       <c r="I636" s="14" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="637" spans="1:9" ht="16" customHeight="1">
@@ -26969,7 +26984,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C637" s="3" t="s">
         <v>1361</v>
@@ -26995,7 +27010,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C638" s="3" t="s">
         <v>1363</v>
@@ -27021,7 +27036,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C639" s="3" t="s">
         <v>1365</v>
@@ -27047,7 +27062,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C640" s="3" t="s">
         <v>1367</v>
@@ -27056,7 +27071,7 @@
         <v>1364</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F640" s="4"/>
       <c r="G640" s="4" t="s">
@@ -27073,7 +27088,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C641" s="3" t="s">
         <v>1368</v>
@@ -27099,7 +27114,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C642" s="3"/>
       <c r="D642" s="3" t="s">
@@ -27123,7 +27138,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C643" s="3"/>
       <c r="D643" s="3" t="s">
@@ -27165,7 +27180,7 @@
         <v>2</v>
       </c>
       <c r="I644" s="14" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="645" spans="1:9" ht="16" customHeight="1">
@@ -27191,7 +27206,7 @@
         <v>5</v>
       </c>
       <c r="I645" s="14" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="16" customHeight="1">
@@ -27199,7 +27214,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C646" s="3" t="s">
         <v>1374</v>
@@ -27269,7 +27284,7 @@
         <v>4</v>
       </c>
       <c r="I648" s="14" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="16" customHeight="1">
@@ -27349,7 +27364,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C652" s="3"/>
       <c r="D652" s="3" t="s">
@@ -27373,7 +27388,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C653" s="3" t="s">
         <v>1385</v>
@@ -27399,7 +27414,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C654" s="3" t="s">
         <v>1388</v>
@@ -27425,7 +27440,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C655" s="3" t="s">
         <v>1391</v>
@@ -27482,7 +27497,7 @@
         <v>205</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F657" s="4"/>
       <c r="G657" s="4" t="s">
@@ -27493,7 +27508,7 @@
         <v>2</v>
       </c>
       <c r="I657" s="14" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="16" customHeight="1">
@@ -27501,7 +27516,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C658" s="3" t="s">
         <v>1397</v>
@@ -27527,7 +27542,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>1400</v>
@@ -27553,7 +27568,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="C660" s="3" t="s">
         <v>1402</v>
@@ -27599,7 +27614,7 @@
         <v>1</v>
       </c>
       <c r="I661" s="14" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="662" spans="1:9" ht="32" customHeight="1">
@@ -27607,7 +27622,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C662" s="3" t="s">
         <v>1406</v>
@@ -27633,7 +27648,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C663" s="3" t="s">
         <v>1408</v>
@@ -27659,7 +27674,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="C664" s="3" t="s">
         <v>1410</v>
@@ -27685,7 +27700,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="C665" s="3" t="s">
         <v>1412</v>
@@ -27718,7 +27733,7 @@
         <v>1415</v>
       </c>
       <c r="E666" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="F666" s="4"/>
       <c r="G666" s="4" t="s">
@@ -27729,7 +27744,7 @@
         <v>2</v>
       </c>
       <c r="I666" s="14" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="667" spans="1:9" ht="16" customHeight="1">
@@ -27737,14 +27752,14 @@
         <v>666</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="C667" s="3"/>
       <c r="D667" s="3" t="s">
         <v>1416</v>
       </c>
       <c r="E667" s="4" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="F667" s="4"/>
       <c r="G667" s="4" t="s">
@@ -27755,7 +27770,7 @@
         <v>2</v>
       </c>
       <c r="I667" s="14" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="668" spans="1:9" ht="16" customHeight="1">
@@ -27901,7 +27916,7 @@
         <v>4</v>
       </c>
       <c r="I673" s="14" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="674" spans="1:9" ht="16" customHeight="1">
@@ -27929,7 +27944,7 @@
         <v>1</v>
       </c>
       <c r="I674" s="14" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="675" spans="1:9" ht="16" customHeight="1">
@@ -27937,7 +27952,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C675" s="3" t="s">
         <v>1430</v>
@@ -27963,7 +27978,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C676" s="3" t="s">
         <v>1433</v>
@@ -27989,7 +28004,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C677" s="3"/>
       <c r="D677" s="3" t="s">
@@ -28009,7 +28024,7 @@
         <v>2</v>
       </c>
       <c r="I677" s="14" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="16" customHeight="1">
@@ -28017,7 +28032,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C678" s="3"/>
       <c r="D678" s="3" t="s">
@@ -28035,7 +28050,7 @@
         <v>1</v>
       </c>
       <c r="I678" s="14" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="679" spans="1:9" ht="16" customHeight="1">
@@ -28061,7 +28076,7 @@
         <v>1</v>
       </c>
       <c r="I679" s="14" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="16" customHeight="1">
@@ -28076,7 +28091,7 @@
         <v>1443</v>
       </c>
       <c r="E680" s="4" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="F680" s="4"/>
       <c r="G680" s="4" t="s">
@@ -28087,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="I680" s="14" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="681" spans="1:9" ht="16" customHeight="1">
@@ -28095,7 +28110,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C681" s="3" t="s">
         <v>1444</v>
@@ -28115,7 +28130,7 @@
         <v>2</v>
       </c>
       <c r="I681" s="14" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="16" customHeight="1">
@@ -28171,7 +28186,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="C684" s="3"/>
       <c r="D684" s="3" t="s">
@@ -28195,7 +28210,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="C685" s="3" t="s">
         <v>1451</v>
@@ -28215,7 +28230,7 @@
         <v>2</v>
       </c>
       <c r="I685" s="14" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="686" spans="1:9" ht="16" customHeight="1">
@@ -28223,7 +28238,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="C686" s="3" t="s">
         <v>1453</v>
@@ -28258,7 +28273,7 @@
         <v>1456</v>
       </c>
       <c r="E687" s="4" t="s">
-        <v>1906</v>
+        <v>2851</v>
       </c>
       <c r="F687" s="4"/>
       <c r="G687" s="4" t="s">
@@ -28266,10 +28281,10 @@
       </c>
       <c r="H687" s="14">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I687" s="14" t="s">
-        <v>2673</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="16" customHeight="1">
@@ -28277,7 +28292,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="C688" s="3" t="s">
         <v>1457</v>
@@ -28303,7 +28318,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C689" s="3" t="s">
         <v>1459</v>
@@ -28331,7 +28346,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="C690" s="3" t="s">
         <v>1462</v>
@@ -28357,14 +28372,14 @@
         <v>690</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="C691" s="3"/>
       <c r="D691" s="3" t="s">
         <v>481</v>
       </c>
       <c r="E691" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F691" s="4"/>
       <c r="G691" s="4" t="s">
@@ -28375,7 +28390,7 @@
         <v>3</v>
       </c>
       <c r="I691" s="14" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="692" spans="1:9" ht="16" customHeight="1">
@@ -28383,7 +28398,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="C692" s="3" t="s">
         <v>1463</v>
@@ -28392,7 +28407,7 @@
         <v>11</v>
       </c>
       <c r="E692" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F692" s="4"/>
       <c r="G692" s="4" t="s">
@@ -28403,7 +28418,7 @@
         <v>3</v>
       </c>
       <c r="I692" s="14" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="693" spans="1:9" ht="31" customHeight="1">
@@ -28418,7 +28433,7 @@
         <v>1465</v>
       </c>
       <c r="E693" s="4" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="F693" s="4"/>
       <c r="G693" s="4" t="s">
@@ -28429,7 +28444,7 @@
         <v>6</v>
       </c>
       <c r="I693" s="14" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="694" spans="1:9" ht="32" customHeight="1">
@@ -28444,7 +28459,7 @@
         <v>1467</v>
       </c>
       <c r="E694" s="4" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="F694" s="4"/>
       <c r="G694" s="4" t="s">
@@ -28455,7 +28470,7 @@
         <v>5</v>
       </c>
       <c r="I694" s="14" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="695" spans="1:9" ht="16" customHeight="1">
@@ -28470,7 +28485,7 @@
         <v>329</v>
       </c>
       <c r="E695" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F695" s="4"/>
       <c r="G695" s="4" t="s">
@@ -28481,7 +28496,7 @@
         <v>2</v>
       </c>
       <c r="I695" s="14" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="696" spans="1:9" ht="16" customHeight="1">
@@ -28496,7 +28511,7 @@
         <v>954</v>
       </c>
       <c r="E696" s="4" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="F696" s="4"/>
       <c r="G696" s="4" t="s">
@@ -28507,7 +28522,7 @@
         <v>1</v>
       </c>
       <c r="I696" s="14" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="697" spans="1:9" ht="16" customHeight="1">
@@ -28533,7 +28548,7 @@
         <v>2</v>
       </c>
       <c r="I697" s="14" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="698" spans="1:9" ht="16" customHeight="1">
@@ -28559,7 +28574,7 @@
         <v>3</v>
       </c>
       <c r="I698" s="14" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="699" spans="1:9" ht="16" customHeight="1">
@@ -28633,7 +28648,7 @@
         <v>3</v>
       </c>
       <c r="I701" s="14" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="702" spans="1:9" ht="37.25" customHeight="1">
@@ -28641,7 +28656,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="C702" s="3" t="s">
         <v>1479</v>
@@ -28709,7 +28724,7 @@
         <v>1</v>
       </c>
       <c r="I704" s="14" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="705" spans="1:9" ht="16" customHeight="1">
@@ -28759,7 +28774,7 @@
         <v>2</v>
       </c>
       <c r="I706" s="14" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="707" spans="1:9" ht="16" customHeight="1">
@@ -28785,7 +28800,7 @@
         <v>1</v>
       </c>
       <c r="I707" s="14" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="708" spans="1:9" ht="16" customHeight="1">
@@ -28811,7 +28826,7 @@
         <v>4</v>
       </c>
       <c r="I708" s="14" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="709" spans="1:9" ht="16" customHeight="1">
@@ -28837,7 +28852,7 @@
         <v>1</v>
       </c>
       <c r="I709" s="14" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="16" customHeight="1">
@@ -28852,7 +28867,7 @@
         <v>419</v>
       </c>
       <c r="E710" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F710" s="4"/>
       <c r="G710" s="4" t="s">
@@ -28863,7 +28878,7 @@
         <v>3</v>
       </c>
       <c r="I710" s="14" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="711" spans="1:9" ht="16" customHeight="1">
@@ -28889,7 +28904,7 @@
         <v>1</v>
       </c>
       <c r="I711" s="14" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="712" spans="1:9" ht="16" customHeight="1">
@@ -28939,7 +28954,7 @@
         <v>3</v>
       </c>
       <c r="I713" s="14" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="714" spans="1:9" ht="16" customHeight="1">
@@ -28965,7 +28980,7 @@
         <v>1</v>
       </c>
       <c r="I714" s="14" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="715" spans="1:9" ht="16" customHeight="1">
@@ -28991,7 +29006,7 @@
         <v>1</v>
       </c>
       <c r="I715" s="14" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="716" spans="1:9" ht="16" customHeight="1">
@@ -29045,7 +29060,7 @@
         <v>2</v>
       </c>
       <c r="I717" s="14" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="718" spans="1:9" ht="16" customHeight="1">
@@ -29084,7 +29099,7 @@
         <v>9</v>
       </c>
       <c r="E719" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F719" s="4"/>
       <c r="G719" s="4" t="s">
@@ -29095,7 +29110,7 @@
         <v>3</v>
       </c>
       <c r="I719" s="14" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="720" spans="1:9" ht="16" customHeight="1">
@@ -29121,7 +29136,7 @@
         <v>1</v>
       </c>
       <c r="I720" s="14" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="721" spans="1:9" ht="16" customHeight="1">
@@ -29136,7 +29151,7 @@
         <v>9</v>
       </c>
       <c r="E721" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F721" s="4"/>
       <c r="G721" s="4" t="s">
@@ -29147,7 +29162,7 @@
         <v>4</v>
       </c>
       <c r="I721" s="14" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="722" spans="1:9" ht="16" customHeight="1">
@@ -29162,7 +29177,7 @@
         <v>691</v>
       </c>
       <c r="E722" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F722" s="4"/>
       <c r="G722" s="4" t="s">
@@ -29173,7 +29188,7 @@
         <v>2</v>
       </c>
       <c r="I722" s="14" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="723" spans="1:9" ht="16" customHeight="1">
@@ -29201,7 +29216,7 @@
         <v>3</v>
       </c>
       <c r="I723" s="14" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="724" spans="1:9" ht="16" customHeight="1">
@@ -29227,7 +29242,7 @@
         <v>3</v>
       </c>
       <c r="I724" s="14" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="725" spans="1:9" ht="16" customHeight="1">
@@ -29277,7 +29292,7 @@
         <v>2</v>
       </c>
       <c r="I726" s="14" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="727" spans="1:9" ht="16" customHeight="1">
@@ -29303,7 +29318,7 @@
         <v>1</v>
       </c>
       <c r="I727" s="14" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="728" spans="1:9" ht="16" customHeight="1">
@@ -29329,7 +29344,7 @@
         <v>1</v>
       </c>
       <c r="I728" s="14" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="729" spans="1:9" ht="16" customHeight="1">
@@ -29355,7 +29370,7 @@
         <v>2</v>
       </c>
       <c r="I729" s="14" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="730" spans="1:9" ht="16" customHeight="1">
@@ -29363,7 +29378,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3" t="s">
@@ -29383,7 +29398,7 @@
         <v>1</v>
       </c>
       <c r="I730" s="14" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="16" customHeight="1">
@@ -29415,7 +29430,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3" t="s">
@@ -29439,7 +29454,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3" t="s">
@@ -29457,7 +29472,7 @@
         <v>1</v>
       </c>
       <c r="I733" s="14" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="734" spans="1:9" ht="16" customHeight="1">
@@ -29465,7 +29480,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3" t="s">
@@ -29485,7 +29500,7 @@
         <v>1</v>
       </c>
       <c r="I734" s="14" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="735" spans="1:9" ht="16" customHeight="1">
@@ -29524,7 +29539,7 @@
         <v>62</v>
       </c>
       <c r="E736" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F736" s="4"/>
       <c r="G736" s="4" t="s">
@@ -29535,7 +29550,7 @@
         <v>6</v>
       </c>
       <c r="I736" s="14" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="737" spans="1:9" ht="16" customHeight="1">
@@ -29567,7 +29582,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="C738" s="3" t="s">
         <v>1541</v>
@@ -29587,7 +29602,7 @@
         <v>1</v>
       </c>
       <c r="I738" s="14" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="739" spans="1:9" ht="16" customHeight="1">
@@ -29613,7 +29628,7 @@
         <v>1</v>
       </c>
       <c r="I739" s="14" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="740" spans="1:9" ht="16" customHeight="1">
@@ -29639,7 +29654,7 @@
         <v>2</v>
       </c>
       <c r="I740" s="14" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="741" spans="1:9" ht="16" customHeight="1">
@@ -29671,7 +29686,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="C742" s="3" t="s">
         <v>1550</v>
@@ -29691,7 +29706,7 @@
         <v>1</v>
       </c>
       <c r="I742" s="14" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="16" customHeight="1">
@@ -29699,7 +29714,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3" t="s">
@@ -29743,7 +29758,7 @@
         <v>2</v>
       </c>
       <c r="I744" s="14" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="745" spans="1:9" ht="16" customHeight="1">
@@ -29751,14 +29766,14 @@
         <v>744</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3" t="s">
         <v>620</v>
       </c>
       <c r="E745" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F745" s="4"/>
       <c r="G745" s="4" t="s">
@@ -29769,7 +29784,7 @@
         <v>2</v>
       </c>
       <c r="I745" s="14" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="16" customHeight="1">
@@ -29777,7 +29792,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3" t="s">
@@ -29795,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="I746" s="14" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="747" spans="1:9" ht="16" customHeight="1">
@@ -29845,7 +29860,7 @@
         <v>1</v>
       </c>
       <c r="I748" s="14" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="16" customHeight="1">
@@ -29969,7 +29984,7 @@
         <v>2</v>
       </c>
       <c r="I753" s="14" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="754" spans="1:9" ht="16" customHeight="1">
@@ -29995,7 +30010,7 @@
         <v>1</v>
       </c>
       <c r="I754" s="14" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="755" spans="1:9" ht="16" customHeight="1">
@@ -30034,7 +30049,7 @@
         <v>1494</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F756" s="4"/>
       <c r="G756" s="4" t="s">
@@ -30051,7 +30066,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3" t="s">
@@ -30077,7 +30092,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3" t="s">
@@ -30119,7 +30134,7 @@
         <v>1</v>
       </c>
       <c r="I759" s="14" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="16" customHeight="1">
@@ -30127,7 +30142,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3" t="s">
@@ -30145,7 +30160,7 @@
         <v>2</v>
       </c>
       <c r="I760" s="14" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="761" spans="1:9" ht="16" customHeight="1">
@@ -30171,7 +30186,7 @@
         <v>3</v>
       </c>
       <c r="I761" s="14" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="762" spans="1:9" ht="16" customHeight="1">
@@ -30197,7 +30212,7 @@
         <v>2</v>
       </c>
       <c r="I762" s="14" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="763" spans="1:9" ht="16" customHeight="1">
@@ -30205,7 +30220,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="C763" s="3" t="s">
         <v>1596</v>
@@ -30225,7 +30240,7 @@
         <v>2</v>
       </c>
       <c r="I763" s="14" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="764" spans="1:9" ht="16" customHeight="1">
@@ -30233,7 +30248,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3" t="s">
@@ -30251,7 +30266,7 @@
         <v>2</v>
       </c>
       <c r="I764" s="14" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="765" spans="1:9" ht="16" customHeight="1">
@@ -30283,7 +30298,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C766" s="3" t="s">
         <v>1600</v>
@@ -30329,7 +30344,7 @@
         <v>1</v>
       </c>
       <c r="I767" s="14" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="768" spans="1:9" ht="16" customHeight="1">
@@ -30355,7 +30370,7 @@
         <v>1</v>
       </c>
       <c r="I768" s="14" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="769" spans="1:9" ht="16" customHeight="1">
@@ -30381,7 +30396,7 @@
         <v>1</v>
       </c>
       <c r="I769" s="14" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="770" spans="1:9" ht="16" customHeight="1">
@@ -30409,7 +30424,7 @@
         <v>1</v>
       </c>
       <c r="I770" s="14" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="771" spans="1:9" ht="16" customHeight="1">
@@ -30424,7 +30439,7 @@
         <v>1586</v>
       </c>
       <c r="E771" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F771" s="4"/>
       <c r="G771" s="4" t="s">
@@ -30441,7 +30456,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3" t="s">
@@ -30483,7 +30498,7 @@
         <v>1</v>
       </c>
       <c r="I773" s="14" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="774" spans="1:9" ht="16" customHeight="1">
@@ -30498,7 +30513,7 @@
         <v>625</v>
       </c>
       <c r="E774" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F774" s="4"/>
       <c r="G774" s="4" t="s">
@@ -30509,7 +30524,7 @@
         <v>3</v>
       </c>
       <c r="I774" s="14" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="775" spans="1:9" ht="16" customHeight="1">
@@ -30535,7 +30550,7 @@
         <v>1</v>
       </c>
       <c r="I775" s="14" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="776" spans="1:9" ht="16" customHeight="1">
@@ -30561,7 +30576,7 @@
         <v>2</v>
       </c>
       <c r="I776" s="14" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="777" spans="1:9" ht="16" customHeight="1">
@@ -30587,7 +30602,7 @@
         <v>4</v>
       </c>
       <c r="I777" s="14" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="778" spans="1:9" ht="16" customHeight="1">
@@ -30613,7 +30628,7 @@
         <v>1</v>
       </c>
       <c r="I778" s="14" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="779" spans="1:9" ht="16" customHeight="1">
@@ -30663,7 +30678,7 @@
         <v>1</v>
       </c>
       <c r="I780" s="14" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="781" spans="1:9" ht="16" customHeight="1">
@@ -30719,7 +30734,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3" t="s">
@@ -30743,7 +30758,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="C784" s="3" t="s">
         <v>1634</v>
@@ -30769,7 +30784,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3" t="s">
@@ -30787,7 +30802,7 @@
         <v>1</v>
       </c>
       <c r="I785" s="14" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="786" spans="1:9" ht="16" customHeight="1">
@@ -30843,7 +30858,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>1640</v>
@@ -30863,7 +30878,7 @@
         <v>1</v>
       </c>
       <c r="I788" s="14" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="789" spans="1:9" ht="16" customHeight="1">
@@ -30889,7 +30904,7 @@
         <v>2</v>
       </c>
       <c r="I789" s="14" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="790" spans="1:9" ht="16" customHeight="1">
@@ -30904,7 +30919,7 @@
         <v>1646</v>
       </c>
       <c r="E790" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F790" s="4"/>
       <c r="G790" s="4" t="s">
@@ -30921,7 +30936,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="C791" s="3" t="s">
         <v>1647</v>
@@ -30941,7 +30956,7 @@
         <v>2</v>
       </c>
       <c r="I791" s="14" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="16" customHeight="1">
@@ -30949,7 +30964,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>1649</v>
@@ -30969,7 +30984,7 @@
         <v>3</v>
       </c>
       <c r="I792" s="14" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="793" spans="1:9" ht="16" customHeight="1">
@@ -30997,7 +31012,7 @@
         <v>2</v>
       </c>
       <c r="I793" s="14" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="794" spans="1:9" ht="16" customHeight="1">
@@ -31053,7 +31068,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3" t="s">
@@ -31077,16 +31092,16 @@
         <v>796</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="C797" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E797" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F797" s="4"/>
       <c r="G797" s="4" t="s">
@@ -31097,7 +31112,7 @@
         <v>2</v>
       </c>
       <c r="I797" s="14" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="798" spans="1:9" ht="16" customHeight="1">
@@ -31123,7 +31138,7 @@
         <v>2</v>
       </c>
       <c r="I798" s="14" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="799" spans="1:9" ht="16" customHeight="1">
@@ -31149,7 +31164,7 @@
         <v>1</v>
       </c>
       <c r="I799" s="14" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="800" spans="1:9" ht="16" customHeight="1">
@@ -31199,7 +31214,7 @@
         <v>1</v>
       </c>
       <c r="I801" s="14" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="16" customHeight="1">
@@ -31249,7 +31264,7 @@
         <v>1</v>
       </c>
       <c r="I803" s="14" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="804" spans="1:9" ht="16" customHeight="1">
@@ -31275,7 +31290,7 @@
         <v>1</v>
       </c>
       <c r="I804" s="14" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="805" spans="1:9" ht="16" customHeight="1">
@@ -31397,7 +31412,7 @@
         <v>1</v>
       </c>
       <c r="I809" s="14" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="810" spans="1:9" ht="16" customHeight="1">
@@ -31471,7 +31486,7 @@
         <v>1</v>
       </c>
       <c r="I812" s="14" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="16" customHeight="1">
@@ -31497,7 +31512,7 @@
         <v>1</v>
       </c>
       <c r="I813" s="14" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="814" spans="1:9" ht="16" customHeight="1">
@@ -31547,7 +31562,7 @@
         <v>1</v>
       </c>
       <c r="I815" s="14" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="816" spans="1:9" ht="16" customHeight="1">
@@ -31562,7 +31577,7 @@
         <v>1703</v>
       </c>
       <c r="E816" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F816" s="4"/>
       <c r="G816" s="4" t="s">
@@ -31573,7 +31588,7 @@
         <v>3</v>
       </c>
       <c r="I816" s="14" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="817" spans="1:9" ht="16" customHeight="1">
@@ -31599,7 +31614,7 @@
         <v>3</v>
       </c>
       <c r="I817" s="14" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="818" spans="1:9" ht="16" customHeight="1">
@@ -31625,7 +31640,7 @@
         <v>1</v>
       </c>
       <c r="I818" s="14" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="819" spans="1:9" ht="16" customHeight="1">
@@ -31651,7 +31666,7 @@
         <v>2</v>
       </c>
       <c r="I819" s="14" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="820" spans="1:9" ht="16" customHeight="1">
@@ -31677,7 +31692,7 @@
         <v>2</v>
       </c>
       <c r="I820" s="14" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="16" customHeight="1">
@@ -31694,7 +31709,7 @@
         <v>1787</v>
       </c>
       <c r="E821" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="F821" s="4"/>
       <c r="G821" s="4" t="s">
@@ -31705,7 +31720,7 @@
         <v>2</v>
       </c>
       <c r="I821" s="14" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="822" spans="1:9" ht="31" customHeight="1">
@@ -31731,7 +31746,7 @@
         <v>2</v>
       </c>
       <c r="I822" s="14" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="823" spans="1:9" ht="16" customHeight="1">
@@ -31783,7 +31798,7 @@
         <v>1</v>
       </c>
       <c r="I824" s="14" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="825" spans="1:9" ht="16" customHeight="1">
@@ -31809,7 +31824,7 @@
         <v>1</v>
       </c>
       <c r="I825" s="14" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="826" spans="1:9" ht="16" customHeight="1">
@@ -31848,7 +31863,7 @@
         <v>1743</v>
       </c>
       <c r="E827" s="4" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="F827" s="4"/>
       <c r="G827" s="4" t="s">
@@ -31859,7 +31874,7 @@
         <v>2</v>
       </c>
       <c r="I827" s="14" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="828" spans="1:9" ht="16" customHeight="1">
@@ -31885,7 +31900,7 @@
         <v>1</v>
       </c>
       <c r="I828" s="14" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="829" spans="1:9" ht="16" customHeight="1">
@@ -31911,7 +31926,7 @@
         <v>2</v>
       </c>
       <c r="I829" s="14" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="830" spans="1:9" ht="31" customHeight="1">
@@ -31926,7 +31941,7 @@
         <v>1831</v>
       </c>
       <c r="E830" s="4" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="F830" s="4"/>
       <c r="G830" s="4" t="s">
@@ -31937,7 +31952,7 @@
         <v>3</v>
       </c>
       <c r="I830" s="14" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="831" spans="1:9" ht="16" customHeight="1">
@@ -31963,7 +31978,7 @@
         <v>1</v>
       </c>
       <c r="I831" s="14" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="832" spans="1:9" ht="16" customHeight="1">
@@ -32013,7 +32028,7 @@
         <v>1</v>
       </c>
       <c r="I833" s="14" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="834" spans="1:9" ht="16" customHeight="1">
@@ -32035,11 +32050,11 @@
         <v>1666</v>
       </c>
       <c r="H834" s="14">
-        <f t="shared" ref="H834:H859" si="13">LEN(E834)-LEN(SUBSTITUTE(E834,"，",""))+1</f>
+        <f t="shared" ref="H834:H860" si="13">LEN(E834)-LEN(SUBSTITUTE(E834,"，",""))+1</f>
         <v>1</v>
       </c>
       <c r="I834" s="14" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="835" spans="1:9" ht="16" customHeight="1">
@@ -32054,7 +32069,7 @@
         <v>1879</v>
       </c>
       <c r="E835" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F835" s="4"/>
       <c r="G835" s="4" t="s">
@@ -32065,7 +32080,7 @@
         <v>2</v>
       </c>
       <c r="I835" s="14" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="836" spans="1:9" ht="16" customHeight="1">
@@ -32115,7 +32130,7 @@
         <v>1</v>
       </c>
       <c r="I837" s="14" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="838" spans="1:9" ht="16" customHeight="1">
@@ -32141,7 +32156,7 @@
         <v>1</v>
       </c>
       <c r="I838" s="14" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="16" customHeight="1">
@@ -32167,7 +32182,7 @@
         <v>1</v>
       </c>
       <c r="I839" s="14" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="16" customHeight="1">
@@ -32175,11 +32190,11 @@
         <v>839</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E840" s="4" t="s">
         <v>1904</v>
@@ -32193,7 +32208,7 @@
         <v>1</v>
       </c>
       <c r="I840" s="14" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="16" customHeight="1">
@@ -32201,14 +32216,14 @@
         <v>840</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C841" s="3"/>
       <c r="D841" s="3" t="s">
         <v>1743</v>
       </c>
       <c r="E841" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F841" s="4"/>
       <c r="G841" s="4" t="s">
@@ -32219,7 +32234,7 @@
         <v>2</v>
       </c>
       <c r="I841" s="14" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="842" spans="1:9" ht="16" customHeight="1">
@@ -32227,14 +32242,14 @@
         <v>841</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C842" s="3"/>
       <c r="D842" s="3" t="s">
         <v>1722</v>
       </c>
       <c r="E842" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F842" s="4"/>
       <c r="G842" s="4" t="s">
@@ -32251,14 +32266,14 @@
         <v>842</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C843" s="3"/>
       <c r="D843" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E843" s="4" t="s">
         <v>1918</v>
-      </c>
-      <c r="E843" s="4" t="s">
-        <v>1919</v>
       </c>
       <c r="F843" s="4"/>
       <c r="G843" s="4" t="s">
@@ -32269,7 +32284,7 @@
         <v>1</v>
       </c>
       <c r="I843" s="14" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="844" spans="1:9" ht="16" customHeight="1">
@@ -32277,14 +32292,14 @@
         <v>843</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C844" s="3"/>
       <c r="D844" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E844" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F844" s="4"/>
       <c r="G844" s="4" t="s">
@@ -32295,7 +32310,7 @@
         <v>1</v>
       </c>
       <c r="I844" s="14" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="845" spans="1:9" ht="16" customHeight="1">
@@ -32303,14 +32318,14 @@
         <v>844</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C845" s="3"/>
       <c r="D845" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E845" s="4" t="s">
         <v>1949</v>
-      </c>
-      <c r="E845" s="4" t="s">
-        <v>1950</v>
       </c>
       <c r="F845" s="4"/>
       <c r="G845" s="4" t="s">
@@ -32321,7 +32336,7 @@
         <v>1</v>
       </c>
       <c r="I845" s="14" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="846" spans="1:9" ht="16" customHeight="1">
@@ -32329,14 +32344,14 @@
         <v>845</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C846" s="3"/>
       <c r="D846" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E846" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F846" s="4"/>
       <c r="G846" s="4" t="s">
@@ -32347,7 +32362,7 @@
         <v>1</v>
       </c>
       <c r="I846" s="14" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="847" spans="1:9" ht="16" customHeight="1">
@@ -32355,14 +32370,14 @@
         <v>846</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="3" t="s">
         <v>1735</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F847" s="4"/>
       <c r="G847" s="4" t="s">
@@ -32373,7 +32388,7 @@
         <v>1</v>
       </c>
       <c r="I847" s="14" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="848" spans="1:9" ht="16" customHeight="1">
@@ -32381,14 +32396,14 @@
         <v>847</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C848" s="3"/>
       <c r="D848" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E848" s="4" t="s">
         <v>1966</v>
-      </c>
-      <c r="E848" s="4" t="s">
-        <v>1967</v>
       </c>
       <c r="F848" s="4"/>
       <c r="G848" s="4" t="s">
@@ -32399,7 +32414,7 @@
         <v>1</v>
       </c>
       <c r="I848" s="14" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="849" spans="1:9" ht="16" customHeight="1">
@@ -32407,14 +32422,14 @@
         <v>848</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="3" t="s">
         <v>1861</v>
       </c>
       <c r="E849" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F849" s="4"/>
       <c r="G849" s="4" t="s">
@@ -32425,7 +32440,7 @@
         <v>2</v>
       </c>
       <c r="I849" s="14" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="850" spans="1:9" ht="16" customHeight="1">
@@ -32433,14 +32448,14 @@
         <v>849</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C850" s="3"/>
       <c r="D850" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E850" s="4" t="s">
         <v>1973</v>
-      </c>
-      <c r="E850" s="4" t="s">
-        <v>1974</v>
       </c>
       <c r="F850" s="4"/>
       <c r="G850" s="4" t="s">
@@ -32451,7 +32466,7 @@
         <v>1</v>
       </c>
       <c r="I850" s="14" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="851" spans="1:9" ht="16" customHeight="1">
@@ -32459,14 +32474,14 @@
         <v>850</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C851" s="3"/>
       <c r="D851" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E851" s="4" t="s">
         <v>1986</v>
-      </c>
-      <c r="E851" s="4" t="s">
-        <v>1987</v>
       </c>
       <c r="F851" s="4"/>
       <c r="G851" s="4" t="s">
@@ -32477,7 +32492,7 @@
         <v>1</v>
       </c>
       <c r="I851" s="14" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="852" spans="1:9" ht="16" customHeight="1">
@@ -32485,14 +32500,14 @@
         <v>851</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C852" s="3"/>
       <c r="D852" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E852" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F852" s="4"/>
       <c r="G852" s="4" t="s">
@@ -32509,14 +32524,14 @@
         <v>852</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E853" s="4" t="s">
         <v>2002</v>
-      </c>
-      <c r="E853" s="4" t="s">
-        <v>2003</v>
       </c>
       <c r="F853" s="4"/>
       <c r="G853" s="4" t="s">
@@ -32527,7 +32542,7 @@
         <v>1</v>
       </c>
       <c r="I853" s="14" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="854" spans="1:9" ht="16" customHeight="1">
@@ -32535,14 +32550,14 @@
         <v>853</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C854" s="3"/>
       <c r="D854" s="3" t="s">
         <v>1722</v>
       </c>
       <c r="E854" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F854" s="4"/>
       <c r="G854" s="4" t="s">
@@ -32553,7 +32568,7 @@
         <v>1</v>
       </c>
       <c r="I854" s="14" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="855" spans="1:9" ht="16" customHeight="1">
@@ -32561,14 +32576,14 @@
         <v>854</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C855" s="3"/>
       <c r="D855" s="3" t="s">
         <v>1703</v>
       </c>
       <c r="E855" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F855" s="4"/>
       <c r="G855" s="4" t="s">
@@ -32585,14 +32600,14 @@
         <v>855</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C856" s="3"/>
       <c r="D856" s="3" t="s">
         <v>1839</v>
       </c>
       <c r="E856" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F856" s="4"/>
       <c r="G856" s="4" t="s">
@@ -32609,14 +32624,14 @@
         <v>856</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C857" s="3"/>
       <c r="D857" s="3" t="s">
         <v>1839</v>
       </c>
       <c r="E857" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F857" s="4"/>
       <c r="G857" s="4" t="s">
@@ -32627,7 +32642,7 @@
         <v>1</v>
       </c>
       <c r="I857" s="14" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="858" spans="1:9" ht="16" customHeight="1">
@@ -32635,14 +32650,14 @@
         <v>857</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E858" s="4" t="s">
         <v>2315</v>
-      </c>
-      <c r="E858" s="4" t="s">
-        <v>2316</v>
       </c>
       <c r="F858" s="4"/>
       <c r="G858" s="4" t="s">
@@ -32653,7 +32668,7 @@
         <v>1</v>
       </c>
       <c r="I858" s="14" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="859" spans="1:9" ht="16" customHeight="1">
@@ -32661,14 +32676,14 @@
         <v>858</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="C859" s="3"/>
       <c r="D859" s="3" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="E859" s="4" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="F859" s="4"/>
       <c r="G859" s="4" t="s">
@@ -32679,20 +32694,33 @@
         <v>1</v>
       </c>
       <c r="I859" s="14" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="16" customHeight="1">
       <c r="A860" s="12">
         <v>859</v>
       </c>
-      <c r="B860" s="3"/>
-      <c r="C860" s="3"/>
-      <c r="D860" s="3"/>
-      <c r="E860" s="4"/>
+      <c r="B860" s="3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C860" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E860" s="4" t="s">
+        <v>2856</v>
+      </c>
       <c r="F860" s="4"/>
-      <c r="G860" s="4"/>
-      <c r="H860" s="14"/>
+      <c r="G860" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H860" s="14">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="I860" s="14"/>
     </row>
     <row r="861" spans="1:9" ht="16" customHeight="1">
